--- a/capiq_data/in_process_data/IQ201105.xlsx
+++ b/capiq_data/in_process_data/IQ201105.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373E992-D1D5-4962-AEBC-DDE63CBC1BF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEDCE9D-0E39-4E59-AA25-26A9427A594E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e04e779a-fda5-466a-af68-7f7488b17113"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"39e37e2d-6e13-4ac3-92be-f11c87d4dcaf"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>207.6</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>2372.5</v>
+        <v>2395.6</v>
       </c>
       <c r="E2">
-        <v>1063</v>
+        <v>505.7</v>
       </c>
       <c r="F2">
-        <v>911.5</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="G2">
-        <v>6800.9</v>
+        <v>1963.1</v>
       </c>
       <c r="H2">
-        <v>145631.1</v>
+        <v>84404.9</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1583.7</v>
+        <v>1336.5</v>
       </c>
       <c r="K2">
-        <v>107.9</v>
+        <v>459.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1537.6</v>
+        <v>567.9</v>
       </c>
       <c r="O2">
-        <v>135746.1</v>
+        <v>78152.399999999994</v>
       </c>
       <c r="P2">
-        <v>2556.5</v>
+        <v>1796</v>
       </c>
       <c r="Q2">
-        <v>-391.4</v>
+        <v>78.3</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>13627</v>
+        <v>17473</v>
       </c>
       <c r="T2">
-        <v>9885</v>
+        <v>6252.5</v>
       </c>
       <c r="U2">
-        <v>1877.4</v>
+        <v>926.6</v>
       </c>
       <c r="V2">
-        <v>862.2</v>
+        <v>1314.9</v>
       </c>
       <c r="W2">
-        <v>-184.5</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-975.2</v>
+        <v>-226.4</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-188</v>
+        <v>-2043.2</v>
       </c>
       <c r="AA2">
-        <v>207.6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>190.2</v>
+        <v>105.3</v>
       </c>
       <c r="D3">
-        <v>2221.9</v>
+        <v>2236</v>
       </c>
       <c r="E3">
-        <v>1309.9000000000001</v>
+        <v>335.2</v>
       </c>
       <c r="F3">
-        <v>979.4</v>
+        <v>680.2</v>
       </c>
       <c r="G3">
-        <v>7130.7</v>
+        <v>1377.5</v>
       </c>
       <c r="H3">
-        <v>147549.70000000001</v>
+        <v>82412.399999999994</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1579.8</v>
+        <v>1294.0999999999999</v>
       </c>
       <c r="K3">
-        <v>106.8</v>
+        <v>550.1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-1914.9</v>
       </c>
       <c r="M3">
-        <v>-1.7</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="N3">
-        <v>1463.4</v>
+        <v>699.4</v>
       </c>
       <c r="O3">
-        <v>137176.9</v>
+        <v>75971.600000000006</v>
       </c>
       <c r="P3">
-        <v>2466.6</v>
+        <v>1844.2</v>
       </c>
       <c r="Q3">
-        <v>106.8</v>
+        <v>-401</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>10372.799999999999</v>
+        <v>6440.8</v>
       </c>
       <c r="U3">
-        <v>1984.2</v>
+        <v>525.6</v>
       </c>
       <c r="V3">
-        <v>1195.5</v>
+        <v>682.3</v>
       </c>
       <c r="W3">
-        <v>-8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-1804.6</v>
+        <v>681.1</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>527.20000000000005</v>
+        <v>-1994.4</v>
       </c>
       <c r="AA3">
-        <v>190.2</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>225.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2296.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1361.7</v>
+        <v>572.29999999999995</v>
       </c>
       <c r="F4">
-        <v>1049.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7262.1</v>
+        <v>1522.1</v>
       </c>
       <c r="H4">
-        <v>149278.39999999999</v>
+        <v>85229.7</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1582.1</v>
+        <v>1390.6</v>
       </c>
       <c r="K4">
-        <v>107.9</v>
+        <v>675.9</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1587.5</v>
+        <v>679.5</v>
       </c>
       <c r="O4">
-        <v>138610.79999999999</v>
+        <v>78701.3</v>
       </c>
       <c r="P4">
-        <v>2535.3000000000002</v>
+        <v>2066.5</v>
       </c>
       <c r="Q4">
-        <v>185.4</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>10667.6</v>
+        <v>6528.4</v>
       </c>
       <c r="U4">
-        <v>2169.6</v>
+        <v>371.9</v>
       </c>
       <c r="V4">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-8.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-482.6</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-25.8</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>225.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>80.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2093.6</v>
+        <v>2405</v>
       </c>
       <c r="E5">
-        <v>1237.4000000000001</v>
+        <v>553.79999999999995</v>
       </c>
       <c r="F5">
-        <v>926.5</v>
+        <v>567.79999999999995</v>
       </c>
       <c r="G5">
-        <v>7038</v>
+        <v>1370.4</v>
       </c>
       <c r="H5">
-        <v>143302.29999999999</v>
+        <v>83955.199999999997</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1570.4</v>
+        <v>1383.5</v>
       </c>
       <c r="K5">
-        <v>73.8</v>
+        <v>713.8</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2132.6</v>
+        <v>718.9</v>
       </c>
       <c r="O5">
-        <v>133012.9</v>
+        <v>77136.2</v>
       </c>
       <c r="P5">
-        <v>2833.6</v>
+        <v>2097.3000000000002</v>
       </c>
       <c r="Q5">
-        <v>-735.4</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>10289.4</v>
+        <v>6819</v>
       </c>
       <c r="U5">
-        <v>1434.2</v>
+        <v>231.1</v>
       </c>
       <c r="V5">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>47.7</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-713.3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>80.099999999999994</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>156.80000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D6">
-        <v>2058.8000000000002</v>
+        <v>1991.7</v>
       </c>
       <c r="E6">
-        <v>1196.5</v>
+        <v>489</v>
       </c>
       <c r="F6">
-        <v>888.4</v>
+        <v>309.5</v>
       </c>
       <c r="G6">
-        <v>7963.9</v>
+        <v>1662.1</v>
       </c>
       <c r="H6">
-        <v>147361.70000000001</v>
+        <v>88350.5</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1564.8</v>
+        <v>1378.4</v>
       </c>
       <c r="K6">
-        <v>105.2</v>
+        <v>511.6</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2005.7</v>
+        <v>546.70000000000005</v>
       </c>
       <c r="O6">
-        <v>137967.79999999999</v>
+        <v>81530.2</v>
       </c>
       <c r="P6">
-        <v>2822.4</v>
+        <v>1890</v>
       </c>
       <c r="Q6">
-        <v>1399.7</v>
+        <v>443.4</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>13527</v>
+        <v>17138</v>
       </c>
       <c r="T6">
-        <v>9393.9</v>
+        <v>6820.3</v>
       </c>
       <c r="U6">
-        <v>2833.9</v>
+        <v>561.20000000000005</v>
       </c>
       <c r="V6">
-        <v>827.9</v>
+        <v>1186.2</v>
       </c>
       <c r="W6">
-        <v>-222</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>684.8</v>
+        <v>-736.1</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>158.9</v>
+        <v>-230.1</v>
       </c>
       <c r="AA6">
-        <v>156.80000000000001</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>212.1</v>
+        <v>-34.9</v>
       </c>
       <c r="D7">
-        <v>2095.9</v>
+        <v>2227.8000000000002</v>
       </c>
       <c r="E7">
-        <v>1118.8</v>
+        <v>494.7</v>
       </c>
       <c r="F7">
-        <v>833.1</v>
+        <v>775.6</v>
       </c>
       <c r="G7">
-        <v>6343.2</v>
+        <v>1667.3</v>
       </c>
       <c r="H7">
-        <v>153738.20000000001</v>
+        <v>88758.7</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1570.8</v>
+        <v>1343.5</v>
       </c>
       <c r="K7">
-        <v>101.2</v>
+        <v>693.2</v>
       </c>
       <c r="L7">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.8</v>
+        <v>-42.8</v>
       </c>
       <c r="N7">
-        <v>1772.4</v>
+        <v>693.6</v>
       </c>
       <c r="O7">
-        <v>143986.29999999999</v>
+        <v>82160.7</v>
       </c>
       <c r="P7">
-        <v>1672</v>
+        <v>2036.7</v>
       </c>
       <c r="Q7">
-        <v>-1182</v>
+        <v>-72.2</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>9751.9</v>
+        <v>6598</v>
       </c>
       <c r="U7">
-        <v>1651.9</v>
+        <v>557.5</v>
       </c>
       <c r="V7">
-        <v>901.7</v>
+        <v>494.5</v>
       </c>
       <c r="W7">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-1393.2</v>
+        <v>337.5</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-93.7</v>
+        <v>-717.7</v>
       </c>
       <c r="AA7">
-        <v>212.1</v>
+        <v>-34.9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>175.9</v>
+        <v>120.2</v>
       </c>
       <c r="D8">
-        <v>2118.6</v>
+        <v>2335.5</v>
       </c>
       <c r="E8">
-        <v>1097</v>
+        <v>1092.4000000000001</v>
       </c>
       <c r="F8">
-        <v>959.1</v>
+        <v>578</v>
       </c>
       <c r="G8">
-        <v>6035.9</v>
+        <v>3019.8</v>
       </c>
       <c r="H8">
-        <v>152050.70000000001</v>
+        <v>90193.4</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1576.9</v>
+        <v>1342.2</v>
       </c>
       <c r="K8">
-        <v>262.89999999999998</v>
+        <v>400.2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2012.2</v>
+        <v>566.1</v>
       </c>
       <c r="O8">
-        <v>142555.29999999999</v>
+        <v>83523.3</v>
       </c>
       <c r="P8">
-        <v>2931.5</v>
+        <v>1742.4</v>
       </c>
       <c r="Q8">
-        <v>-5.3</v>
+        <v>677.1</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9495.4</v>
+        <v>6670.1</v>
       </c>
       <c r="U8">
-        <v>1646.6</v>
+        <v>1261.0999999999999</v>
       </c>
       <c r="V8">
-        <v>600.29999999999995</v>
+        <v>1443.2</v>
       </c>
       <c r="W8">
-        <v>-53.7</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-469.3</v>
+        <v>-308.2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-111.2</v>
+        <v>-360.1</v>
       </c>
       <c r="AA8">
-        <v>175.9</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>195.4</v>
+        <v>-158.4</v>
       </c>
       <c r="D9">
-        <v>2704.7</v>
+        <v>1995.9</v>
       </c>
       <c r="E9">
-        <v>1192.2</v>
+        <v>786.6</v>
       </c>
       <c r="F9">
-        <v>1008</v>
+        <v>487.3</v>
       </c>
       <c r="G9">
-        <v>6882</v>
+        <v>2095.9</v>
       </c>
       <c r="H9">
-        <v>159193.29999999999</v>
+        <v>88270.7</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2180</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="K9">
-        <v>28.5</v>
+        <v>474.3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1971.2</v>
+        <v>889.2</v>
       </c>
       <c r="O9">
-        <v>149286.39999999999</v>
+        <v>81636.7</v>
       </c>
       <c r="P9">
-        <v>3259.1</v>
+        <v>1778</v>
       </c>
       <c r="Q9">
-        <v>632.4</v>
+        <v>-534.6</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9906.9</v>
+        <v>6634</v>
       </c>
       <c r="U9">
-        <v>2279</v>
+        <v>631.5</v>
       </c>
       <c r="V9">
-        <v>871.7</v>
+        <v>1582.4</v>
       </c>
       <c r="W9">
-        <v>-69.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>653.1</v>
+        <v>-47.6</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-656.3</v>
+        <v>-1286.2</v>
       </c>
       <c r="AA9">
-        <v>195.4</v>
+        <v>-158.4</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>223.2</v>
+        <v>215.4</v>
       </c>
       <c r="D10">
-        <v>2295.9</v>
+        <v>2263.3000000000002</v>
       </c>
       <c r="E10">
-        <v>1067.9000000000001</v>
+        <v>459.7</v>
       </c>
       <c r="F10">
-        <v>1093.3</v>
+        <v>539.9</v>
       </c>
       <c r="G10">
-        <v>8731.9</v>
+        <v>2246.3000000000002</v>
       </c>
       <c r="H10">
-        <v>161830.20000000001</v>
+        <v>89861.3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2671.3</v>
+        <v>1332.5</v>
       </c>
       <c r="K10">
-        <v>40.799999999999997</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1413.6</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="O10">
-        <v>152066.4</v>
+        <v>83204.100000000006</v>
       </c>
       <c r="P10">
-        <v>3646.5</v>
+        <v>1897.3</v>
       </c>
       <c r="Q10">
-        <v>1898.2</v>
+        <v>407.1</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>13373</v>
+        <v>15038</v>
       </c>
       <c r="T10">
-        <v>9763.7999999999993</v>
+        <v>6657.2</v>
       </c>
       <c r="U10">
-        <v>4177.2</v>
+        <v>1038.5999999999999</v>
       </c>
       <c r="V10">
-        <v>707.1</v>
+        <v>1859.5</v>
       </c>
       <c r="W10">
-        <v>-78.2</v>
+        <v>-83.8</v>
       </c>
       <c r="X10">
-        <v>1083.2</v>
+        <v>-805.8</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>391.4</v>
+        <v>-970.1</v>
       </c>
       <c r="AA10">
-        <v>223.2</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>186.5</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="D11">
-        <v>2166.6999999999998</v>
+        <v>1889.8</v>
       </c>
       <c r="E11">
-        <v>1175.2</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="F11">
-        <v>1023.9</v>
+        <v>615</v>
       </c>
       <c r="G11">
-        <v>6382.4</v>
+        <v>2232</v>
       </c>
       <c r="H11">
-        <v>200762.9</v>
+        <v>91840.5</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2790.5</v>
+        <v>1335.6</v>
       </c>
       <c r="K11">
-        <v>46.5</v>
+        <v>758.6</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="N11">
-        <v>1547.5</v>
+        <v>758.6</v>
       </c>
       <c r="O11">
-        <v>190877.4</v>
+        <v>85003.7</v>
       </c>
       <c r="P11">
-        <v>3710.3</v>
+        <v>2094.1999999999998</v>
       </c>
       <c r="Q11">
-        <v>-2516</v>
+        <v>-71.7</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>9885.5</v>
+        <v>6836.8</v>
       </c>
       <c r="U11">
-        <v>1661.2</v>
+        <v>966.9</v>
       </c>
       <c r="V11">
-        <v>595.9</v>
+        <v>747.1</v>
       </c>
       <c r="W11">
-        <v>-67.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-1586.5</v>
+        <v>678.9</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-185.3</v>
+        <v>-1155.5999999999999</v>
       </c>
       <c r="AA11">
-        <v>186.5</v>
+        <v>155.69999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>230.6</v>
+        <v>202.2</v>
       </c>
       <c r="D12">
-        <v>2210.6</v>
+        <v>1951.5</v>
       </c>
       <c r="E12">
-        <v>1219</v>
+        <v>438.8</v>
       </c>
       <c r="F12">
-        <v>1067.4000000000001</v>
+        <v>692.4</v>
       </c>
       <c r="G12">
-        <v>5527.3</v>
+        <v>2712.8</v>
       </c>
       <c r="H12">
-        <v>196512.7</v>
+        <v>98621.7</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2578.6</v>
+        <v>1360.2</v>
       </c>
       <c r="K12">
-        <v>175.3</v>
+        <v>665.4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1558.3</v>
+        <v>843.6</v>
       </c>
       <c r="O12">
-        <v>187050.2</v>
+        <v>91082.7</v>
       </c>
       <c r="P12">
-        <v>3553.4</v>
+        <v>2025.6</v>
       </c>
       <c r="Q12">
-        <v>-550.70000000000005</v>
+        <v>535.4</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>9462.5</v>
+        <v>7539</v>
       </c>
       <c r="U12">
-        <v>1110.5</v>
+        <v>1525.2</v>
       </c>
       <c r="V12">
-        <v>187.7</v>
+        <v>1111.7</v>
       </c>
       <c r="W12">
-        <v>-75.8</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-341.2</v>
+        <v>155.6</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>288.3</v>
+        <v>-549.1</v>
       </c>
       <c r="AA12">
-        <v>230.6</v>
+        <v>202.2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>253.9</v>
+        <v>184.5</v>
       </c>
       <c r="D13">
-        <v>2239.6</v>
+        <v>1972.1</v>
       </c>
       <c r="E13">
-        <v>1160.7</v>
+        <v>792.2</v>
       </c>
       <c r="F13">
-        <v>1094.9000000000001</v>
+        <v>719</v>
       </c>
       <c r="G13">
-        <v>6099.9</v>
+        <v>2535.6</v>
       </c>
       <c r="H13">
-        <v>201687.4</v>
+        <v>103714.6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2593.3000000000002</v>
+        <v>2730.9</v>
       </c>
       <c r="K13">
-        <v>175.5</v>
+        <v>2810.8</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1445.7</v>
+        <v>2851.1</v>
       </c>
       <c r="O13">
-        <v>192079.5</v>
+        <v>96278.3</v>
       </c>
       <c r="P13">
-        <v>3556.7</v>
+        <v>5556.7</v>
       </c>
       <c r="Q13">
-        <v>596.6</v>
+        <v>-574.9</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>9607.9</v>
+        <v>7436.3</v>
       </c>
       <c r="U13">
-        <v>1707.1</v>
+        <v>1008</v>
       </c>
       <c r="V13">
-        <v>614.29999999999995</v>
+        <v>265.5</v>
       </c>
       <c r="W13">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-507.5</v>
+        <v>-331.4</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>263.39999999999998</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="AA13">
-        <v>253.9</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>241.7</v>
+        <v>203.9</v>
       </c>
       <c r="D14">
-        <v>2672.6</v>
+        <v>2173.3000000000002</v>
       </c>
       <c r="E14">
-        <v>1229.5</v>
+        <v>714.9</v>
       </c>
       <c r="F14">
-        <v>1230.7</v>
+        <v>796.6</v>
       </c>
       <c r="G14">
-        <v>7140.1</v>
+        <v>2666.9</v>
       </c>
       <c r="H14">
-        <v>208191.4</v>
+        <v>107754.4</v>
       </c>
       <c r="I14">
-        <v>1144.7</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2601.4</v>
+        <v>1374.3</v>
       </c>
       <c r="K14">
-        <v>150.6</v>
+        <v>702.8</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2542.3000000000002</v>
+        <v>816.7</v>
       </c>
       <c r="O14">
-        <v>198167.2</v>
+        <v>100354.8</v>
       </c>
       <c r="P14">
-        <v>3527</v>
+        <v>2077.1</v>
       </c>
       <c r="Q14">
-        <v>664.7</v>
+        <v>575.79999999999995</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>14792</v>
+        <v>14976</v>
       </c>
       <c r="T14">
-        <v>10024.200000000001</v>
+        <v>7399.6</v>
       </c>
       <c r="U14">
-        <v>2371.8000000000002</v>
+        <v>1192.5</v>
       </c>
       <c r="V14">
-        <v>823.3</v>
+        <v>939.5</v>
       </c>
       <c r="W14">
-        <v>-85</v>
+        <v>-145.30000000000001</v>
       </c>
       <c r="X14">
-        <v>-365.1</v>
+        <v>456.8</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-81.599999999999994</v>
+        <v>-807.4</v>
       </c>
       <c r="AA14">
-        <v>241.7</v>
+        <v>203.9</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>301.89999999999998</v>
+        <v>193.6</v>
       </c>
       <c r="D15">
-        <v>2478.6</v>
+        <v>1996.7</v>
       </c>
       <c r="E15">
-        <v>1199.3</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="F15">
-        <v>1205.4000000000001</v>
+        <v>737.3</v>
       </c>
       <c r="G15">
-        <v>5757.2</v>
+        <v>2881.5</v>
       </c>
       <c r="H15">
-        <v>211193.9</v>
+        <v>110812.8</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2516</v>
+        <v>2355.1</v>
       </c>
       <c r="K15">
-        <v>148.80000000000001</v>
+        <v>986.3</v>
       </c>
       <c r="L15">
-        <v>-0.3</v>
+        <v>-117.7</v>
       </c>
       <c r="M15">
-        <v>-100.1</v>
+        <v>-220.3</v>
       </c>
       <c r="N15">
-        <v>1291</v>
+        <v>1332.3</v>
       </c>
       <c r="O15">
-        <v>200855.8</v>
+        <v>102825.8</v>
       </c>
       <c r="P15">
-        <v>3308.8</v>
+        <v>3541.4</v>
       </c>
       <c r="Q15">
-        <v>-978.7</v>
+        <v>-478.8</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10338.1</v>
+        <v>7987</v>
       </c>
       <c r="U15">
-        <v>1393.1</v>
+        <v>1608.6</v>
       </c>
       <c r="V15">
-        <v>591.29999999999995</v>
+        <v>511.9</v>
       </c>
       <c r="W15">
-        <v>-82.7</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-734.7</v>
+        <v>-516.70000000000005</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-619.1</v>
+        <v>-437.1</v>
       </c>
       <c r="AA15">
-        <v>301.89999999999998</v>
+        <v>193.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>314.60000000000002</v>
+        <v>119.7</v>
       </c>
       <c r="D16">
-        <v>2606.6999999999998</v>
+        <v>1979.7</v>
       </c>
       <c r="E16">
-        <v>1232.3</v>
+        <v>594.29999999999995</v>
       </c>
       <c r="F16">
-        <v>1293.7</v>
+        <v>684.2</v>
       </c>
       <c r="G16">
-        <v>6288.5</v>
+        <v>2804.3</v>
       </c>
       <c r="H16">
-        <v>218322.3</v>
+        <v>111372.9</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2529.4</v>
+        <v>869.7</v>
       </c>
       <c r="K16">
-        <v>148.6</v>
+        <v>626.20000000000005</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1265.7</v>
+        <v>950.1</v>
       </c>
       <c r="O16">
-        <v>207580.6</v>
+        <v>104233.8</v>
       </c>
       <c r="P16">
-        <v>3265.3</v>
+        <v>1695.9</v>
       </c>
       <c r="Q16">
-        <v>349.2</v>
+        <v>763.4</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10741.7</v>
+        <v>7139.1</v>
       </c>
       <c r="U16">
-        <v>1742.3</v>
+        <v>1475.9</v>
       </c>
       <c r="V16">
-        <v>786</v>
+        <v>417.7</v>
       </c>
       <c r="W16">
-        <v>-110.6</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-775.5</v>
+        <v>1050.9000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>501.4</v>
+        <v>-486.2</v>
       </c>
       <c r="AA16">
-        <v>314.60000000000002</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>248.9</v>
+        <v>298.8</v>
       </c>
       <c r="D17">
-        <v>2484.3000000000002</v>
+        <v>2088.6999999999998</v>
       </c>
       <c r="E17">
-        <v>1189.3</v>
+        <v>874.9</v>
       </c>
       <c r="F17">
-        <v>1326.3</v>
+        <v>778.7</v>
       </c>
       <c r="G17">
-        <v>5732.6</v>
+        <v>4078.5</v>
       </c>
       <c r="H17">
-        <v>216422.8</v>
+        <v>109776.4</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2529.1999999999998</v>
+        <v>847.2</v>
       </c>
       <c r="K17">
-        <v>126.3</v>
+        <v>145.4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1181</v>
+        <v>875.1</v>
       </c>
       <c r="O17">
-        <v>205997.7</v>
+        <v>102082</v>
       </c>
       <c r="P17">
-        <v>3185.2</v>
+        <v>992.6</v>
       </c>
       <c r="Q17">
-        <v>-471.5</v>
+        <v>424.5</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>10425.1</v>
+        <v>7694.4</v>
       </c>
       <c r="U17">
-        <v>1270.8</v>
+        <v>1902.5</v>
       </c>
       <c r="V17">
-        <v>820.3</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="W17">
-        <v>-108.1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-961.1</v>
+        <v>-26.4</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-50.9</v>
+        <v>-1263.2</v>
       </c>
       <c r="AA17">
-        <v>248.9</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>278.7</v>
+        <v>213.5</v>
       </c>
       <c r="D18">
-        <v>2908</v>
+        <v>2237.6999999999998</v>
       </c>
       <c r="E18">
-        <v>1205.9000000000001</v>
+        <v>628.5</v>
       </c>
       <c r="F18">
-        <v>1243.8</v>
+        <v>846.4</v>
       </c>
       <c r="G18">
-        <v>6778.5</v>
+        <v>1890.8</v>
       </c>
       <c r="H18">
-        <v>219087</v>
+        <v>113798.1</v>
       </c>
       <c r="I18">
-        <v>1240.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2531.1999999999998</v>
+        <v>843.5</v>
       </c>
       <c r="K18">
-        <v>28</v>
+        <v>281.7</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2310.5</v>
+        <v>558.70000000000005</v>
       </c>
       <c r="O18">
-        <v>208797</v>
+        <v>106253.8</v>
       </c>
       <c r="P18">
-        <v>3074.5</v>
+        <v>1125.2</v>
       </c>
       <c r="Q18">
-        <v>593.1</v>
+        <v>-1949.5</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>14873</v>
+        <v>13976</v>
       </c>
       <c r="T18">
-        <v>10290</v>
+        <v>7544.3</v>
       </c>
       <c r="U18">
-        <v>1863.9</v>
+        <v>450.6</v>
       </c>
       <c r="V18">
-        <v>905.3</v>
+        <v>-359.1</v>
       </c>
       <c r="W18">
-        <v>-108.2</v>
+        <v>-166.5</v>
       </c>
       <c r="X18">
-        <v>33.200000000000003</v>
+        <v>275</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-210.4</v>
+        <v>-1260.5</v>
       </c>
       <c r="AA18">
-        <v>278.7</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>422.4</v>
+        <v>205.5</v>
       </c>
       <c r="D19">
-        <v>2657.3</v>
+        <v>2143.6999999999998</v>
       </c>
       <c r="E19">
-        <v>1230</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="F19">
-        <v>1379.3</v>
+        <v>836.5</v>
       </c>
       <c r="G19">
-        <v>6342.7</v>
+        <v>2615.4</v>
       </c>
       <c r="H19">
-        <v>222494.9</v>
+        <v>113529.1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2514.6</v>
+        <v>848.1</v>
       </c>
       <c r="K19">
-        <v>27.2</v>
+        <v>761.7</v>
       </c>
       <c r="L19">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-19.8</v>
+        <v>-0.8</v>
       </c>
       <c r="N19">
-        <v>1184</v>
+        <v>761.7</v>
       </c>
       <c r="O19">
-        <v>211937.8</v>
+        <v>106186</v>
       </c>
       <c r="P19">
-        <v>3089.1</v>
+        <v>1609.8</v>
       </c>
       <c r="Q19">
-        <v>-411.9</v>
+        <v>96</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10557.1</v>
+        <v>7343.1</v>
       </c>
       <c r="U19">
-        <v>1452</v>
+        <v>548.5</v>
       </c>
       <c r="V19">
-        <v>630.9</v>
+        <v>-76.5</v>
       </c>
       <c r="W19">
-        <v>-114.5</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-813.3</v>
+        <v>471.9</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-6.4</v>
+        <v>-217.8</v>
       </c>
       <c r="AA19">
-        <v>422.4</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>257.60000000000002</v>
+        <v>238.9</v>
       </c>
       <c r="D20">
-        <v>3259.2</v>
+        <v>2200.4</v>
       </c>
       <c r="E20">
-        <v>1282.7</v>
+        <v>719.6</v>
       </c>
       <c r="F20">
-        <v>1163.5</v>
+        <v>863.7</v>
       </c>
       <c r="G20">
-        <v>6934.8</v>
+        <v>3190.3</v>
       </c>
       <c r="H20">
-        <v>222270.7</v>
+        <v>117192.6</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3315.9</v>
+        <v>839.5</v>
       </c>
       <c r="K20">
-        <v>26.6</v>
+        <v>456.3</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1187.2</v>
+        <v>456.3</v>
       </c>
       <c r="O20">
-        <v>212436.5</v>
+        <v>109340.5</v>
       </c>
       <c r="P20">
-        <v>3793.9</v>
+        <v>1295.8</v>
       </c>
       <c r="Q20">
-        <v>812.4</v>
+        <v>623.1</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9834.2000000000007</v>
+        <v>7852.1</v>
       </c>
       <c r="U20">
-        <v>2264.4</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="V20">
-        <v>1486.5</v>
+        <v>882.8</v>
       </c>
       <c r="W20">
-        <v>-120.3</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>33.5</v>
+        <v>203.8</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-377.5</v>
+        <v>-570.20000000000005</v>
       </c>
       <c r="AA20">
-        <v>257.60000000000002</v>
+        <v>238.9</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>300.39999999999998</v>
+        <v>219.4</v>
       </c>
       <c r="D21">
-        <v>3240.9</v>
+        <v>2218.4</v>
       </c>
       <c r="E21">
-        <v>1401.6</v>
+        <v>1109.7</v>
       </c>
       <c r="F21">
-        <v>1330.6</v>
+        <v>863.2</v>
       </c>
       <c r="G21">
-        <v>7654.5</v>
+        <v>3412.8</v>
       </c>
       <c r="H21">
-        <v>215365.4</v>
+        <v>121105.5</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3286.1</v>
+        <v>806.7</v>
       </c>
       <c r="K21">
-        <v>221.6</v>
+        <v>379.4</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1291.9000000000001</v>
+        <v>379.4</v>
       </c>
       <c r="O21">
-        <v>205601.6</v>
+        <v>113305.4</v>
       </c>
       <c r="P21">
-        <v>3984</v>
+        <v>1186.0999999999999</v>
       </c>
       <c r="Q21">
-        <v>249.8</v>
+        <v>-55</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>9763.7999999999993</v>
+        <v>7800.1</v>
       </c>
       <c r="U21">
-        <v>2514.1999999999998</v>
+        <v>1116.5999999999999</v>
       </c>
       <c r="V21">
-        <v>1205.5999999999999</v>
+        <v>556.70000000000005</v>
       </c>
       <c r="W21">
-        <v>-111.9</v>
+        <v>-9.4</v>
       </c>
       <c r="X21">
-        <v>-126.1</v>
+        <v>-363.1</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-254.4</v>
+        <v>-265.7</v>
       </c>
       <c r="AA21">
-        <v>300.39999999999998</v>
+        <v>219.4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>253.6</v>
+        <v>255.2</v>
       </c>
       <c r="D22">
-        <v>2807</v>
+        <v>2479.1999999999998</v>
       </c>
       <c r="E22">
-        <v>1423.6</v>
+        <v>592.70000000000005</v>
       </c>
       <c r="F22">
-        <v>1229.8</v>
+        <v>902.4</v>
       </c>
       <c r="G22">
-        <v>8145</v>
+        <v>3221</v>
       </c>
       <c r="H22">
-        <v>218660.3</v>
+        <v>127035.4</v>
       </c>
       <c r="I22">
-        <v>1872.2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3265.2</v>
+        <v>898.8</v>
       </c>
       <c r="K22">
-        <v>181.1</v>
+        <v>476.4</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3074.4</v>
+        <v>476.4</v>
       </c>
       <c r="O22">
-        <v>209197.2</v>
+        <v>119228.2</v>
       </c>
       <c r="P22">
-        <v>3834.3</v>
+        <v>1375.2</v>
       </c>
       <c r="Q22">
-        <v>50.6</v>
+        <v>524.70000000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>14895</v>
+        <v>14507</v>
       </c>
       <c r="T22">
-        <v>9463.1</v>
+        <v>7807.2</v>
       </c>
       <c r="U22">
-        <v>2564.8000000000002</v>
+        <v>1639.3</v>
       </c>
       <c r="V22">
-        <v>1054.0999999999999</v>
+        <v>888.3</v>
       </c>
       <c r="W22">
-        <v>-110.8</v>
+        <v>-190.5</v>
       </c>
       <c r="X22">
-        <v>397.3</v>
+        <v>233.6</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1191.9000000000001</v>
+        <v>-774.1</v>
       </c>
       <c r="AA22">
-        <v>253.6</v>
+        <v>255.2</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>368</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="D23">
-        <v>3036.6</v>
+        <v>2402.1999999999998</v>
       </c>
       <c r="E23">
-        <v>1309.5</v>
+        <v>673.6</v>
       </c>
       <c r="F23">
-        <v>1339.3</v>
+        <v>988.5</v>
       </c>
       <c r="G23">
-        <v>7916.2</v>
+        <v>3746.2</v>
       </c>
       <c r="H23">
-        <v>217570</v>
+        <v>131974.5</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3269.1</v>
+        <v>893.6</v>
       </c>
       <c r="K23">
-        <v>122.6</v>
+        <v>396.4</v>
       </c>
       <c r="L23">
-        <v>-59.9</v>
+        <v>-78.8</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="N23">
-        <v>1243</v>
+        <v>396.9</v>
       </c>
       <c r="O23">
-        <v>207199.5</v>
+        <v>124375.8</v>
       </c>
       <c r="P23">
-        <v>3977.4</v>
+        <v>1290</v>
       </c>
       <c r="Q23">
-        <v>-421.9</v>
+        <v>-33.1</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>10370.5</v>
+        <v>7598.7</v>
       </c>
       <c r="U23">
-        <v>2142.9</v>
+        <v>1608.2</v>
       </c>
       <c r="V23">
-        <v>895.5</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="W23">
-        <v>-110.4</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X23">
-        <v>535.9</v>
+        <v>423.7</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1783</v>
+        <v>-972.9</v>
       </c>
       <c r="AA23">
-        <v>368</v>
+        <v>293.89999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>322.3</v>
+        <v>218.8</v>
       </c>
       <c r="D24">
-        <v>3025.7</v>
+        <v>2459.8000000000002</v>
       </c>
       <c r="E24">
-        <v>1504.8</v>
+        <v>626.79999999999995</v>
       </c>
       <c r="F24">
-        <v>1327.8</v>
+        <v>927.7</v>
       </c>
       <c r="G24">
-        <v>8480.5</v>
+        <v>3633.8</v>
       </c>
       <c r="H24">
-        <v>223074.2</v>
+        <v>131429.4</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3270.2</v>
+        <v>894.2</v>
       </c>
       <c r="K24">
-        <v>25.9</v>
+        <v>424.4</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1248.4000000000001</v>
+        <v>424.9</v>
       </c>
       <c r="O24">
-        <v>212169.4</v>
+        <v>124584.7</v>
       </c>
       <c r="P24">
-        <v>3969.5</v>
+        <v>1318.6</v>
       </c>
       <c r="Q24">
-        <v>112.5</v>
+        <v>-391.3</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>10904.8</v>
+        <v>6844.7</v>
       </c>
       <c r="U24">
-        <v>2255.4</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="V24">
-        <v>1230.0999999999999</v>
+        <v>709.8</v>
       </c>
       <c r="W24">
-        <v>-112.8</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="X24">
-        <v>703.1</v>
+        <v>-20.7</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1489.6</v>
+        <v>-708.9</v>
       </c>
       <c r="AA24">
-        <v>322.3</v>
+        <v>218.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>308.2</v>
+        <v>259.2</v>
       </c>
       <c r="D25">
-        <v>2818</v>
+        <v>2449.6</v>
       </c>
       <c r="E25">
-        <v>1382.8</v>
+        <v>682.9</v>
       </c>
       <c r="F25">
-        <v>1290.3</v>
+        <v>950.4</v>
       </c>
       <c r="G25">
-        <v>8298.5</v>
+        <v>3822.6</v>
       </c>
       <c r="H25">
-        <v>230367.6</v>
+        <v>136165.6</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3278.2</v>
+        <v>873.6</v>
       </c>
       <c r="K25">
-        <v>39.9</v>
+        <v>114.7</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1231</v>
+        <v>115.2</v>
       </c>
       <c r="O25">
-        <v>219313.9</v>
+        <v>128477.5</v>
       </c>
       <c r="P25">
-        <v>3923.3</v>
+        <v>988.3</v>
       </c>
       <c r="Q25">
-        <v>-37.200000000000003</v>
+        <v>179.7</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>11053.7</v>
+        <v>7688.1</v>
       </c>
       <c r="U25">
-        <v>2218.1999999999998</v>
+        <v>1396.6</v>
       </c>
       <c r="V25">
-        <v>801.7</v>
+        <v>810.7</v>
       </c>
       <c r="W25">
-        <v>-117.9</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-15.3</v>
+        <v>96.4</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-385.7</v>
+        <v>-832</v>
       </c>
       <c r="AA25">
-        <v>308.2</v>
+        <v>259.2</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>318</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="D26">
-        <v>3513.8</v>
+        <v>2561.5</v>
       </c>
       <c r="E26">
-        <v>1356.2</v>
+        <v>1252.3</v>
       </c>
       <c r="F26">
-        <v>1366.9</v>
+        <v>1023.4</v>
       </c>
       <c r="G26">
-        <v>8485.6</v>
+        <v>4274.3999999999996</v>
       </c>
       <c r="H26">
-        <v>228014.3</v>
+        <v>143658.1</v>
       </c>
       <c r="I26">
-        <v>2001.3</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3125.7</v>
+        <v>1511.3</v>
       </c>
       <c r="K26">
-        <v>51.4</v>
+        <v>84.1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2850.9</v>
+        <v>88.3</v>
       </c>
       <c r="O26">
-        <v>217623</v>
+        <v>135797.29999999999</v>
       </c>
       <c r="P26">
-        <v>3449</v>
+        <v>1595.4</v>
       </c>
       <c r="Q26">
-        <v>501.4</v>
+        <v>194.2</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>14854</v>
+        <v>15289</v>
       </c>
       <c r="T26">
-        <v>10391.299999999999</v>
+        <v>7860.8</v>
       </c>
       <c r="U26">
-        <v>2719.6</v>
+        <v>1591.5</v>
       </c>
       <c r="V26">
-        <v>930.5</v>
+        <v>226.1</v>
       </c>
       <c r="W26">
-        <v>-123.8</v>
+        <v>-222.9</v>
       </c>
       <c r="X26">
-        <v>227.2</v>
+        <v>1086.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-446.2</v>
+        <v>-226.8</v>
       </c>
       <c r="AA26">
-        <v>318</v>
+        <v>292.39999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>348.9</v>
+        <v>265.3</v>
       </c>
       <c r="D27">
-        <v>3049.4</v>
+        <v>2661</v>
       </c>
       <c r="E27">
-        <v>1447</v>
+        <v>843.5</v>
       </c>
       <c r="F27">
-        <v>1357.2</v>
+        <v>1089</v>
       </c>
       <c r="G27">
-        <v>6613.1</v>
+        <v>4303</v>
       </c>
       <c r="H27">
-        <v>235496</v>
+        <v>146617.4</v>
       </c>
       <c r="I27">
-        <v>2034.9</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3126.2</v>
+        <v>1547</v>
       </c>
       <c r="K27">
-        <v>59.5</v>
+        <v>58.8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="N27">
-        <v>2624.6</v>
+        <v>60.4</v>
       </c>
       <c r="O27">
-        <v>224716</v>
+        <v>138510.39999999999</v>
       </c>
       <c r="P27">
-        <v>3262.9</v>
+        <v>1605.8</v>
       </c>
       <c r="Q27">
-        <v>-1184.9000000000001</v>
+        <v>-114.3</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>10780</v>
+        <v>8107</v>
       </c>
       <c r="U27">
-        <v>1534.7</v>
+        <v>1476.5</v>
       </c>
       <c r="V27">
-        <v>522.9</v>
+        <v>1225.5</v>
       </c>
       <c r="W27">
-        <v>-130</v>
+        <v>-16.5</v>
       </c>
       <c r="X27">
-        <v>123.2</v>
+        <v>-640.79999999999995</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1599</v>
+        <v>-339</v>
       </c>
       <c r="AA27">
-        <v>348.9</v>
+        <v>265.3</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>309.5</v>
+        <v>312.10000000000002</v>
       </c>
       <c r="D28">
-        <v>3178.3</v>
+        <v>2831.8</v>
       </c>
       <c r="E28">
-        <v>1381.4</v>
+        <v>936.1</v>
       </c>
       <c r="F28">
-        <v>1294.3</v>
+        <v>1173.0999999999999</v>
       </c>
       <c r="G28">
-        <v>7043.6</v>
+        <v>5055.5</v>
       </c>
       <c r="H28">
-        <v>240153.9</v>
+        <v>150758.29999999999</v>
       </c>
       <c r="I28">
-        <v>2063.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3126.8</v>
+        <v>1536.4</v>
       </c>
       <c r="K28">
-        <v>42</v>
+        <v>58.2</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2651.8</v>
+        <v>59.6</v>
       </c>
       <c r="O28">
-        <v>228820.8</v>
+        <v>142771.6</v>
       </c>
       <c r="P28">
-        <v>3245.4</v>
+        <v>1594.6</v>
       </c>
       <c r="Q28">
-        <v>471.7</v>
+        <v>381.5</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>11333.1</v>
+        <v>7986.7</v>
       </c>
       <c r="U28">
-        <v>2006.4</v>
+        <v>1858</v>
       </c>
       <c r="V28">
-        <v>1306.2</v>
+        <v>696.4</v>
       </c>
       <c r="W28">
-        <v>-132.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-161.19999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-229.3</v>
+        <v>-122.9</v>
       </c>
       <c r="AA28">
-        <v>309.5</v>
+        <v>312.10000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>810.2</v>
+        <v>240.5</v>
       </c>
       <c r="D29">
-        <v>4627.8</v>
+        <v>2849.6</v>
       </c>
       <c r="E29">
-        <v>1516.6</v>
+        <v>904.7</v>
       </c>
       <c r="F29">
-        <v>2090.6</v>
+        <v>1132.5</v>
       </c>
       <c r="G29">
-        <v>8080.3</v>
+        <v>6120.5</v>
       </c>
       <c r="H29">
-        <v>247933.6</v>
+        <v>155617.9</v>
       </c>
       <c r="I29">
-        <v>2094.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3175.4</v>
+        <v>1523.3</v>
       </c>
       <c r="K29">
-        <v>58.8</v>
+        <v>56.7</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2713.6</v>
+        <v>58.7</v>
       </c>
       <c r="O29">
-        <v>235737.2</v>
+        <v>147749.6</v>
       </c>
       <c r="P29">
-        <v>3303.7</v>
+        <v>1580</v>
       </c>
       <c r="Q29">
-        <v>788.6</v>
+        <v>700.7</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>12196.4</v>
+        <v>7868.3</v>
       </c>
       <c r="U29">
-        <v>2795</v>
+        <v>2558.6999999999998</v>
       </c>
       <c r="V29">
-        <v>1799.6</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="W29">
-        <v>-135.80000000000001</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X29">
-        <v>-197.6</v>
+        <v>1371.9</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-960.5</v>
+        <v>-1512.1</v>
       </c>
       <c r="AA29">
-        <v>810.2</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>841.8</v>
+        <v>42.4</v>
       </c>
       <c r="D30">
-        <v>3237.7</v>
+        <v>2564.1</v>
       </c>
       <c r="E30">
-        <v>594.20000000000005</v>
+        <v>951.2</v>
       </c>
       <c r="F30">
-        <v>1403.9</v>
+        <v>782.8</v>
       </c>
       <c r="G30">
-        <v>8361</v>
+        <v>4376.6000000000004</v>
       </c>
       <c r="H30">
-        <v>253941.2</v>
+        <v>154520.20000000001</v>
       </c>
       <c r="I30">
-        <v>2130.5</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3178.4</v>
+        <v>1398.8</v>
       </c>
       <c r="K30">
-        <v>39.5</v>
+        <v>290.8</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2714.5</v>
+        <v>332.4</v>
       </c>
       <c r="O30">
-        <v>240918</v>
+        <v>147098.5</v>
       </c>
       <c r="P30">
-        <v>3274.4</v>
+        <v>1689.6</v>
       </c>
       <c r="Q30">
-        <v>-324.2</v>
+        <v>-1214.3</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15378</v>
+        <v>16585</v>
       </c>
       <c r="T30">
-        <v>13023.2</v>
+        <v>7421.7</v>
       </c>
       <c r="U30">
-        <v>2470.8000000000002</v>
+        <v>1344.4</v>
       </c>
       <c r="V30">
-        <v>559.29999999999995</v>
+        <v>-82.8</v>
       </c>
       <c r="W30">
-        <v>-141.5</v>
+        <v>-252.1</v>
       </c>
       <c r="X30">
-        <v>-148.4</v>
+        <v>535.79999999999995</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-496.8</v>
+        <v>-1293.3</v>
       </c>
       <c r="AA30">
-        <v>841.8</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>397.1</v>
+        <v>182.4</v>
       </c>
       <c r="D31">
-        <v>2883.6</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="E31">
-        <v>1638.4</v>
+        <v>940.4</v>
       </c>
       <c r="F31">
-        <v>1442</v>
+        <v>957.9</v>
       </c>
       <c r="G31">
-        <v>6462.7</v>
+        <v>5464.4</v>
       </c>
       <c r="H31">
-        <v>253636.5</v>
+        <v>152001.20000000001</v>
       </c>
       <c r="I31">
-        <v>2153.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>3196.6</v>
+        <v>1406.6</v>
       </c>
       <c r="K31">
-        <v>78.099999999999994</v>
+        <v>175.1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-121.5</v>
       </c>
       <c r="M31">
-        <v>-0.3</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="N31">
-        <v>2867.2</v>
+        <v>220.6</v>
       </c>
       <c r="O31">
-        <v>241252.9</v>
+        <v>145159.1</v>
       </c>
       <c r="P31">
-        <v>3324.2</v>
+        <v>1581.7</v>
       </c>
       <c r="Q31">
-        <v>-135.1</v>
+        <v>-223.7</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>12383.6</v>
+        <v>6842.1</v>
       </c>
       <c r="U31">
-        <v>2335.6999999999998</v>
+        <v>1120.7</v>
       </c>
       <c r="V31">
-        <v>746.5</v>
+        <v>997.8</v>
       </c>
       <c r="W31">
-        <v>-147.30000000000001</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X31">
-        <v>98.3</v>
+        <v>-252.7</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-570.6</v>
+        <v>-806.1</v>
       </c>
       <c r="AA31">
-        <v>397.1</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>456.6</v>
+        <v>176.6</v>
       </c>
       <c r="D32">
-        <v>3234.9</v>
+        <v>2658.1</v>
       </c>
       <c r="E32">
-        <v>1455.6</v>
+        <v>892.1</v>
       </c>
       <c r="F32">
-        <v>1505.5</v>
+        <v>955.1</v>
       </c>
       <c r="G32">
-        <v>6235.1</v>
+        <v>5837.1</v>
       </c>
       <c r="H32">
-        <v>252104</v>
+        <v>151526.9</v>
       </c>
       <c r="I32">
-        <v>2188</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>3219.9</v>
+        <v>1384</v>
       </c>
       <c r="K32">
-        <v>64.5</v>
+        <v>215.1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2811</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="O32">
-        <v>240258.6</v>
+        <v>144907</v>
       </c>
       <c r="P32">
-        <v>3333.4</v>
+        <v>1599.1</v>
       </c>
       <c r="Q32">
-        <v>6.3</v>
+        <v>403.8</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>11845.4</v>
+        <v>6619.9</v>
       </c>
       <c r="U32">
-        <v>2342</v>
+        <v>1524.5</v>
       </c>
       <c r="V32">
-        <v>891.7</v>
+        <v>75.3</v>
       </c>
       <c r="W32">
-        <v>-148.5</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="X32">
-        <v>476.2</v>
+        <v>1686.4</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-1380.7</v>
+        <v>-1346</v>
       </c>
       <c r="AA32">
-        <v>456.6</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>456.3</v>
+        <v>98.3</v>
       </c>
       <c r="D33">
-        <v>4348.1000000000004</v>
+        <v>2497.8000000000002</v>
       </c>
       <c r="E33">
-        <v>1514.4</v>
+        <v>1598.4</v>
       </c>
       <c r="F33">
-        <v>1674.1</v>
+        <v>830.2</v>
       </c>
       <c r="G33">
-        <v>6829.3</v>
+        <v>7058</v>
       </c>
       <c r="H33">
-        <v>258758.3</v>
+        <v>143409.70000000001</v>
       </c>
       <c r="I33">
-        <v>2212.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>3245.5</v>
+        <v>1378.6</v>
       </c>
       <c r="K33">
-        <v>36.1</v>
+        <v>350.1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2686.1</v>
+        <v>393.7</v>
       </c>
       <c r="O33">
-        <v>246841.1</v>
+        <v>137797.1</v>
       </c>
       <c r="P33">
-        <v>3335.3</v>
+        <v>1728.7</v>
       </c>
       <c r="Q33">
-        <v>584.70000000000005</v>
+        <v>744.5</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>11917.2</v>
+        <v>5612.6</v>
       </c>
       <c r="U33">
-        <v>2926.7</v>
+        <v>2269</v>
       </c>
       <c r="V33">
-        <v>2075.6999999999998</v>
+        <v>794.1</v>
       </c>
       <c r="W33">
-        <v>-150.69999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X33">
-        <v>576.20000000000005</v>
+        <v>1642</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-1429.3</v>
+        <v>-1170.2</v>
       </c>
       <c r="AA33">
-        <v>456.3</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>236.5</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
-        <v>3770.6</v>
+        <v>2279.3000000000002</v>
       </c>
       <c r="E34">
-        <v>481.9</v>
+        <v>988.1</v>
       </c>
       <c r="F34">
-        <v>1299.5</v>
+        <v>705.5</v>
       </c>
       <c r="G34">
-        <v>6880.6</v>
+        <v>7975.9</v>
       </c>
       <c r="H34">
-        <v>243036.1</v>
+        <v>128182.39999999999</v>
       </c>
       <c r="I34">
-        <v>2252.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3259.6</v>
+        <v>2276.3000000000002</v>
       </c>
       <c r="K34">
-        <v>42.9</v>
+        <v>500.9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2567.4</v>
+        <v>957.7</v>
       </c>
       <c r="O34">
-        <v>231188.9</v>
+        <v>125613.1</v>
       </c>
       <c r="P34">
-        <v>3341.2</v>
+        <v>3232.1</v>
       </c>
       <c r="Q34">
-        <v>50.8</v>
+        <v>339</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>16475</v>
+        <v>16234</v>
       </c>
       <c r="T34">
-        <v>11847.2</v>
+        <v>2569.3000000000002</v>
       </c>
       <c r="U34">
-        <v>2977.5</v>
+        <v>2608</v>
       </c>
       <c r="V34">
-        <v>1442.6</v>
+        <v>357.6</v>
       </c>
       <c r="W34">
-        <v>-152.1</v>
+        <v>-125</v>
       </c>
       <c r="X34">
-        <v>-98</v>
+        <v>-1119.7</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-801.2</v>
+        <v>1076</v>
       </c>
       <c r="AA34">
-        <v>236.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>429.9</v>
+        <v>121</v>
       </c>
       <c r="D35">
-        <v>3743.9</v>
+        <v>2188.6</v>
       </c>
       <c r="E35">
-        <v>1641.1</v>
+        <v>1183</v>
       </c>
       <c r="F35">
-        <v>1518.7</v>
+        <v>818.5</v>
       </c>
       <c r="G35">
-        <v>6320.1</v>
+        <v>7578.6</v>
       </c>
       <c r="H35">
-        <v>259419.9</v>
+        <v>123234.8</v>
       </c>
       <c r="I35">
-        <v>2276</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3266.4</v>
+        <v>1292.7</v>
       </c>
       <c r="K35">
-        <v>43.9</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.3</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="N35">
-        <v>2708.1</v>
+        <v>532</v>
       </c>
       <c r="O35">
-        <v>246120</v>
+        <v>120525.9</v>
       </c>
       <c r="P35">
-        <v>3551.1</v>
+        <v>1823.5</v>
       </c>
       <c r="Q35">
-        <v>-717.8</v>
+        <v>91.6</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>13299.9</v>
+        <v>2708.9</v>
       </c>
       <c r="U35">
-        <v>2259.6999999999998</v>
+        <v>2699.6</v>
       </c>
       <c r="V35">
-        <v>1176.4000000000001</v>
+        <v>949.9</v>
       </c>
       <c r="W35">
-        <v>-150.19999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X35">
-        <v>-403.1</v>
+        <v>-871.7</v>
       </c>
       <c r="Y35">
-        <v>143.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-1208.5</v>
+        <v>-126.5</v>
       </c>
       <c r="AA35">
-        <v>429.9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>386.3</v>
+        <v>158.6</v>
       </c>
       <c r="D36">
-        <v>3972.6</v>
+        <v>2157.8000000000002</v>
       </c>
       <c r="E36">
-        <v>1549.2</v>
+        <v>1046.5</v>
       </c>
       <c r="F36">
-        <v>1496.6</v>
+        <v>760.6</v>
       </c>
       <c r="G36">
-        <v>7366.1</v>
+        <v>8758.7999999999993</v>
       </c>
       <c r="H36">
-        <v>267918</v>
+        <v>130706.6</v>
       </c>
       <c r="I36">
-        <v>2308.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>3762.4</v>
+        <v>1592.4</v>
       </c>
       <c r="K36">
-        <v>76.8</v>
+        <v>159.5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2854.2</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="O36">
-        <v>253511.5</v>
+        <v>124930.1</v>
       </c>
       <c r="P36">
-        <v>4118.3</v>
+        <v>2192.8000000000002</v>
       </c>
       <c r="Q36">
-        <v>1056.2</v>
+        <v>1628.9</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>14406.5</v>
+        <v>5776.5</v>
       </c>
       <c r="U36">
-        <v>3315.9</v>
+        <v>4328.5</v>
       </c>
       <c r="V36">
-        <v>1502</v>
+        <v>465</v>
       </c>
       <c r="W36">
-        <v>-150.4</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="X36">
-        <v>407.1</v>
+        <v>-55.5</v>
       </c>
       <c r="Y36">
-        <v>170.5</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-314</v>
+        <v>781.2</v>
       </c>
       <c r="AA36">
-        <v>386.3</v>
+        <v>158.6</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>277.10000000000002</v>
+        <v>192.9</v>
       </c>
       <c r="D37">
-        <v>4458.3999999999996</v>
+        <v>2270.3000000000002</v>
       </c>
       <c r="E37">
-        <v>1635.7</v>
+        <v>1135.8</v>
       </c>
       <c r="F37">
-        <v>1588</v>
+        <v>891.3</v>
       </c>
       <c r="G37">
-        <v>7370.1</v>
+        <v>7406</v>
       </c>
       <c r="H37">
-        <v>270238.40000000002</v>
+        <v>137379.5</v>
       </c>
       <c r="I37">
-        <v>2341.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>3763.9</v>
+        <v>2447.1</v>
       </c>
       <c r="K37">
-        <v>96.1</v>
+        <v>107.1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3126.9</v>
+        <v>109.1</v>
       </c>
       <c r="O37">
-        <v>254996.3</v>
+        <v>129772.8</v>
       </c>
       <c r="P37">
-        <v>4136.6000000000004</v>
+        <v>2554.1999999999998</v>
       </c>
       <c r="Q37">
-        <v>-117.9</v>
+        <v>-1087.3</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>15242.1</v>
+        <v>7606.7</v>
       </c>
       <c r="U37">
-        <v>3198</v>
+        <v>3241.2</v>
       </c>
       <c r="V37">
-        <v>1786.4</v>
+        <v>379.5</v>
       </c>
       <c r="W37">
-        <v>-153</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X37">
-        <v>677.9</v>
+        <v>-1390.2</v>
       </c>
       <c r="Y37">
-        <v>164.9</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-951.5</v>
+        <v>-379.5</v>
       </c>
       <c r="AA37">
-        <v>277.10000000000002</v>
+        <v>192.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>300.89999999999998</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="D38">
-        <v>4047.2</v>
+        <v>2232.4</v>
       </c>
       <c r="E38">
-        <v>768.9</v>
+        <v>1065.4000000000001</v>
       </c>
       <c r="F38">
-        <v>1593.9</v>
+        <v>802</v>
       </c>
       <c r="G38">
-        <v>6891.6</v>
+        <v>7456</v>
       </c>
       <c r="H38">
-        <v>276087.8</v>
+        <v>137759.4</v>
       </c>
       <c r="I38">
-        <v>2365.5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>3734.1</v>
+        <v>1584.6</v>
       </c>
       <c r="K38">
-        <v>93.4</v>
+        <v>101.6</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2791.4</v>
+        <v>1278</v>
       </c>
       <c r="O38">
-        <v>261137.1</v>
+        <v>129743</v>
       </c>
       <c r="P38">
-        <v>4094.8</v>
+        <v>2332.1</v>
       </c>
       <c r="Q38">
-        <v>-682.1</v>
+        <v>-1000.8</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>17601</v>
+        <v>14487</v>
       </c>
       <c r="T38">
-        <v>14950.7</v>
+        <v>8016.4</v>
       </c>
       <c r="U38">
-        <v>2515.9</v>
+        <v>2240.4</v>
       </c>
       <c r="V38">
-        <v>1028.4000000000001</v>
+        <v>448.6</v>
       </c>
       <c r="W38">
-        <v>-152.4</v>
+        <v>-167.8</v>
       </c>
       <c r="X38">
-        <v>1051.8</v>
+        <v>-1320</v>
       </c>
       <c r="Y38">
-        <v>229.3</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2690.6</v>
+        <v>-262.5</v>
       </c>
       <c r="AA38">
-        <v>300.89999999999998</v>
+        <v>150.19999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>288.89999999999998</v>
+        <v>199</v>
       </c>
       <c r="D39">
-        <v>4551.3</v>
+        <v>2264</v>
       </c>
       <c r="E39">
-        <v>1691</v>
+        <v>1190.7</v>
       </c>
       <c r="F39">
-        <v>1663.7</v>
+        <v>932.2</v>
       </c>
       <c r="G39">
-        <v>7754.4</v>
+        <v>6371.4</v>
       </c>
       <c r="H39">
-        <v>246903.9</v>
+        <v>140836.70000000001</v>
       </c>
       <c r="I39">
-        <v>2384.9</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>3670.1</v>
+        <v>2295.8000000000002</v>
       </c>
       <c r="K39">
-        <v>105.6</v>
+        <v>131.6</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-64.5</v>
+        <v>-3.4</v>
       </c>
       <c r="N39">
-        <v>2750.4</v>
+        <v>134</v>
       </c>
       <c r="O39">
-        <v>233691.6</v>
+        <v>132148.5</v>
       </c>
       <c r="P39">
-        <v>3846.9</v>
+        <v>2427.4</v>
       </c>
       <c r="Q39">
-        <v>966.8</v>
+        <v>-610.70000000000005</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>13212.3</v>
+        <v>8688.2000000000007</v>
       </c>
       <c r="U39">
-        <v>3482.7</v>
+        <v>1629.7</v>
       </c>
       <c r="V39">
-        <v>1589.1</v>
+        <v>653.20000000000005</v>
       </c>
       <c r="W39">
-        <v>-153.6</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X39">
-        <v>290.39999999999998</v>
+        <v>-801.9</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-609.4</v>
+        <v>-680.5</v>
       </c>
       <c r="AA39">
-        <v>288.89999999999998</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>398.3</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="D40">
-        <v>3114.6</v>
+        <v>2233.6</v>
       </c>
       <c r="E40">
-        <v>1760</v>
+        <v>1232.5999999999999</v>
       </c>
       <c r="F40">
-        <v>1481.9</v>
+        <v>841.6</v>
       </c>
       <c r="G40">
-        <v>7374.6</v>
+        <v>7192</v>
       </c>
       <c r="H40">
-        <v>271309.40000000002</v>
+        <v>136596.5</v>
       </c>
       <c r="I40">
-        <v>2432.6</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4163.3999999999996</v>
+        <v>2572.3000000000002</v>
       </c>
       <c r="K40">
-        <v>76.3</v>
+        <v>126.5</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2718</v>
+        <v>129</v>
       </c>
       <c r="O40">
-        <v>255725.7</v>
+        <v>127524.8</v>
       </c>
       <c r="P40">
-        <v>4311.8</v>
+        <v>2698.8</v>
       </c>
       <c r="Q40">
-        <v>-332.3</v>
+        <v>197.6</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>15583.7</v>
+        <v>9071.7000000000007</v>
       </c>
       <c r="U40">
-        <v>3150.4</v>
+        <v>1827.3</v>
       </c>
       <c r="V40">
-        <v>457</v>
+        <v>831.1</v>
       </c>
       <c r="W40">
-        <v>-153.5</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="X40">
-        <v>519.1</v>
+        <v>-662.5</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1204.8</v>
+        <v>-78.7</v>
       </c>
       <c r="AA40">
-        <v>398.3</v>
+        <v>142.30000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>236</v>
+        <v>150.4</v>
       </c>
       <c r="D41">
-        <v>3310.7</v>
+        <v>2288.5</v>
       </c>
       <c r="E41">
-        <v>1530.2</v>
+        <v>1294.7</v>
       </c>
       <c r="F41">
-        <v>1441</v>
+        <v>915</v>
       </c>
       <c r="G41">
-        <v>7489.9</v>
+        <v>8248</v>
       </c>
       <c r="H41">
-        <v>278484.8</v>
+        <v>143456.6</v>
       </c>
       <c r="I41">
-        <v>2479.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4279</v>
+        <v>1582.1</v>
       </c>
       <c r="K41">
-        <v>76.599999999999994</v>
+        <v>132.1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2732.3</v>
+        <v>1313.5</v>
       </c>
       <c r="O41">
-        <v>262485.2</v>
+        <v>133422.29999999999</v>
       </c>
       <c r="P41">
-        <v>4422.8</v>
+        <v>2891.9</v>
       </c>
       <c r="Q41">
-        <v>406.3</v>
+        <v>441.5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>15999.6</v>
+        <v>10034.299999999999</v>
       </c>
       <c r="U41">
-        <v>3556.7</v>
+        <v>2268.8000000000002</v>
       </c>
       <c r="V41">
-        <v>1064.3</v>
+        <v>445.2</v>
       </c>
       <c r="W41">
-        <v>-153.69999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="X41">
-        <v>760.8</v>
+        <v>-742.6</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1161</v>
+        <v>524</v>
       </c>
       <c r="AA41">
-        <v>236</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>207.6</v>
+      </c>
+      <c r="D42">
+        <v>2372.5</v>
+      </c>
+      <c r="E42">
+        <v>1063</v>
+      </c>
+      <c r="F42">
+        <v>911.5</v>
+      </c>
+      <c r="G42">
+        <v>6800.9</v>
+      </c>
+      <c r="H42">
+        <v>145631.1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1583.7</v>
+      </c>
+      <c r="K42">
+        <v>107.9</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1537.6</v>
+      </c>
+      <c r="O42">
+        <v>135746.1</v>
+      </c>
+      <c r="P42">
+        <v>2556.5</v>
+      </c>
+      <c r="Q42">
+        <v>-391.4</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>13627</v>
+      </c>
+      <c r="T42">
+        <v>9885</v>
+      </c>
+      <c r="U42">
+        <v>1877.4</v>
+      </c>
+      <c r="V42">
+        <v>862.2</v>
+      </c>
+      <c r="W42">
+        <v>-184.5</v>
+      </c>
+      <c r="X42">
+        <v>-975.2</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-188</v>
+      </c>
+      <c r="AA42">
+        <v>207.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>190.2</v>
+      </c>
+      <c r="D43">
+        <v>2221.9</v>
+      </c>
+      <c r="E43">
+        <v>1309.9000000000001</v>
+      </c>
+      <c r="F43">
+        <v>979.4</v>
+      </c>
+      <c r="G43">
+        <v>7130.7</v>
+      </c>
+      <c r="H43">
+        <v>147549.70000000001</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1579.8</v>
+      </c>
+      <c r="K43">
+        <v>106.8</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1.7</v>
+      </c>
+      <c r="N43">
+        <v>1463.4</v>
+      </c>
+      <c r="O43">
+        <v>137176.9</v>
+      </c>
+      <c r="P43">
+        <v>2466.6</v>
+      </c>
+      <c r="Q43">
+        <v>106.8</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>10372.799999999999</v>
+      </c>
+      <c r="U43">
+        <v>1984.2</v>
+      </c>
+      <c r="V43">
+        <v>1195.5</v>
+      </c>
+      <c r="W43">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="X43">
+        <v>-1804.6</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="AA43">
+        <v>190.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>225.6</v>
+      </c>
+      <c r="D44">
+        <v>2296.4</v>
+      </c>
+      <c r="E44">
+        <v>1361.7</v>
+      </c>
+      <c r="F44">
+        <v>1049.5999999999999</v>
+      </c>
+      <c r="G44">
+        <v>7262.1</v>
+      </c>
+      <c r="H44">
+        <v>149278.39999999999</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1582.1</v>
+      </c>
+      <c r="K44">
+        <v>107.9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1587.5</v>
+      </c>
+      <c r="O44">
+        <v>138610.79999999999</v>
+      </c>
+      <c r="P44">
+        <v>2535.3000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>185.4</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>10667.6</v>
+      </c>
+      <c r="U44">
+        <v>2169.6</v>
+      </c>
+      <c r="V44">
+        <v>590</v>
+      </c>
+      <c r="W44">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="X44">
+        <v>-482.6</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-25.8</v>
+      </c>
+      <c r="AA44">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D45">
+        <v>2093.6</v>
+      </c>
+      <c r="E45">
+        <v>1237.4000000000001</v>
+      </c>
+      <c r="F45">
+        <v>926.5</v>
+      </c>
+      <c r="G45">
+        <v>7038</v>
+      </c>
+      <c r="H45">
+        <v>143302.29999999999</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1570.4</v>
+      </c>
+      <c r="K45">
+        <v>73.8</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2132.6</v>
+      </c>
+      <c r="O45">
+        <v>133012.9</v>
+      </c>
+      <c r="P45">
+        <v>2833.6</v>
+      </c>
+      <c r="Q45">
+        <v>-735.4</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>10289.4</v>
+      </c>
+      <c r="U45">
+        <v>1434.2</v>
+      </c>
+      <c r="V45">
+        <v>99.9</v>
+      </c>
+      <c r="W45">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="X45">
+        <v>47.7</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-713.3</v>
+      </c>
+      <c r="AA45">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="D46">
+        <v>2058.8000000000002</v>
+      </c>
+      <c r="E46">
+        <v>1196.5</v>
+      </c>
+      <c r="F46">
+        <v>888.4</v>
+      </c>
+      <c r="G46">
+        <v>7963.9</v>
+      </c>
+      <c r="H46">
+        <v>147361.70000000001</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1564.8</v>
+      </c>
+      <c r="K46">
+        <v>105.2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2005.7</v>
+      </c>
+      <c r="O46">
+        <v>137967.79999999999</v>
+      </c>
+      <c r="P46">
+        <v>2822.4</v>
+      </c>
+      <c r="Q46">
+        <v>1399.7</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>13527</v>
+      </c>
+      <c r="T46">
+        <v>9393.9</v>
+      </c>
+      <c r="U46">
+        <v>2833.9</v>
+      </c>
+      <c r="V46">
+        <v>827.9</v>
+      </c>
+      <c r="W46">
+        <v>-222</v>
+      </c>
+      <c r="X46">
+        <v>684.8</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>158.9</v>
+      </c>
+      <c r="AA46">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>212.1</v>
+      </c>
+      <c r="D47">
+        <v>2095.9</v>
+      </c>
+      <c r="E47">
+        <v>1118.8</v>
+      </c>
+      <c r="F47">
+        <v>833.1</v>
+      </c>
+      <c r="G47">
+        <v>6343.2</v>
+      </c>
+      <c r="H47">
+        <v>153738.20000000001</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1570.8</v>
+      </c>
+      <c r="K47">
+        <v>101.2</v>
+      </c>
+      <c r="L47">
+        <v>-7.5</v>
+      </c>
+      <c r="M47">
+        <v>-0.8</v>
+      </c>
+      <c r="N47">
+        <v>1772.4</v>
+      </c>
+      <c r="O47">
+        <v>143986.29999999999</v>
+      </c>
+      <c r="P47">
+        <v>1672</v>
+      </c>
+      <c r="Q47">
+        <v>-1182</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>9751.9</v>
+      </c>
+      <c r="U47">
+        <v>1651.9</v>
+      </c>
+      <c r="V47">
+        <v>901.7</v>
+      </c>
+      <c r="W47">
+        <v>-62.5</v>
+      </c>
+      <c r="X47">
+        <v>-1393.2</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-93.7</v>
+      </c>
+      <c r="AA47">
+        <v>212.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>175.9</v>
+      </c>
+      <c r="D48">
+        <v>2118.6</v>
+      </c>
+      <c r="E48">
+        <v>1097</v>
+      </c>
+      <c r="F48">
+        <v>959.1</v>
+      </c>
+      <c r="G48">
+        <v>6035.9</v>
+      </c>
+      <c r="H48">
+        <v>152050.70000000001</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1576.9</v>
+      </c>
+      <c r="K48">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2012.2</v>
+      </c>
+      <c r="O48">
+        <v>142555.29999999999</v>
+      </c>
+      <c r="P48">
+        <v>2931.5</v>
+      </c>
+      <c r="Q48">
+        <v>-5.3</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>9495.4</v>
+      </c>
+      <c r="U48">
+        <v>1646.6</v>
+      </c>
+      <c r="V48">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="W48">
+        <v>-53.7</v>
+      </c>
+      <c r="X48">
+        <v>-469.3</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-111.2</v>
+      </c>
+      <c r="AA48">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>195.4</v>
+      </c>
+      <c r="D49">
+        <v>2704.7</v>
+      </c>
+      <c r="E49">
+        <v>1192.2</v>
+      </c>
+      <c r="F49">
+        <v>1008</v>
+      </c>
+      <c r="G49">
+        <v>6882</v>
+      </c>
+      <c r="H49">
+        <v>159193.29999999999</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2180</v>
+      </c>
+      <c r="K49">
+        <v>28.5</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1971.2</v>
+      </c>
+      <c r="O49">
+        <v>149286.39999999999</v>
+      </c>
+      <c r="P49">
+        <v>3259.1</v>
+      </c>
+      <c r="Q49">
+        <v>632.4</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>9906.9</v>
+      </c>
+      <c r="U49">
+        <v>2279</v>
+      </c>
+      <c r="V49">
+        <v>871.7</v>
+      </c>
+      <c r="W49">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="X49">
+        <v>653.1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-656.3</v>
+      </c>
+      <c r="AA49">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>223.2</v>
+      </c>
+      <c r="D50">
+        <v>2295.9</v>
+      </c>
+      <c r="E50">
+        <v>1067.9000000000001</v>
+      </c>
+      <c r="F50">
+        <v>1093.3</v>
+      </c>
+      <c r="G50">
+        <v>8731.9</v>
+      </c>
+      <c r="H50">
+        <v>161830.20000000001</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2671.3</v>
+      </c>
+      <c r="K50">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1413.6</v>
+      </c>
+      <c r="O50">
+        <v>152066.4</v>
+      </c>
+      <c r="P50">
+        <v>3646.5</v>
+      </c>
+      <c r="Q50">
+        <v>1898.2</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>13373</v>
+      </c>
+      <c r="T50">
+        <v>9763.7999999999993</v>
+      </c>
+      <c r="U50">
+        <v>4177.2</v>
+      </c>
+      <c r="V50">
+        <v>707.1</v>
+      </c>
+      <c r="W50">
+        <v>-78.2</v>
+      </c>
+      <c r="X50">
+        <v>1083.2</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>391.4</v>
+      </c>
+      <c r="AA50">
+        <v>223.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>186.5</v>
+      </c>
+      <c r="D51">
+        <v>2166.6999999999998</v>
+      </c>
+      <c r="E51">
+        <v>1175.2</v>
+      </c>
+      <c r="F51">
+        <v>1023.9</v>
+      </c>
+      <c r="G51">
+        <v>6382.4</v>
+      </c>
+      <c r="H51">
+        <v>200762.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2790.5</v>
+      </c>
+      <c r="K51">
+        <v>46.5</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.4</v>
+      </c>
+      <c r="N51">
+        <v>1547.5</v>
+      </c>
+      <c r="O51">
+        <v>190877.4</v>
+      </c>
+      <c r="P51">
+        <v>3710.3</v>
+      </c>
+      <c r="Q51">
+        <v>-2516</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>9885.5</v>
+      </c>
+      <c r="U51">
+        <v>1661.2</v>
+      </c>
+      <c r="V51">
+        <v>595.9</v>
+      </c>
+      <c r="W51">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="X51">
+        <v>-1586.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-185.3</v>
+      </c>
+      <c r="AA51">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>230.6</v>
+      </c>
+      <c r="D52">
+        <v>2210.6</v>
+      </c>
+      <c r="E52">
+        <v>1219</v>
+      </c>
+      <c r="F52">
+        <v>1067.4000000000001</v>
+      </c>
+      <c r="G52">
+        <v>5527.3</v>
+      </c>
+      <c r="H52">
+        <v>196512.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2578.6</v>
+      </c>
+      <c r="K52">
+        <v>175.3</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1558.3</v>
+      </c>
+      <c r="O52">
+        <v>187050.2</v>
+      </c>
+      <c r="P52">
+        <v>3553.4</v>
+      </c>
+      <c r="Q52">
+        <v>-550.70000000000005</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>9462.5</v>
+      </c>
+      <c r="U52">
+        <v>1110.5</v>
+      </c>
+      <c r="V52">
+        <v>187.7</v>
+      </c>
+      <c r="W52">
+        <v>-75.8</v>
+      </c>
+      <c r="X52">
+        <v>-341.2</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>288.3</v>
+      </c>
+      <c r="AA52">
+        <v>230.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>253.9</v>
+      </c>
+      <c r="D53">
+        <v>2239.6</v>
+      </c>
+      <c r="E53">
+        <v>1160.7</v>
+      </c>
+      <c r="F53">
+        <v>1094.9000000000001</v>
+      </c>
+      <c r="G53">
+        <v>6099.9</v>
+      </c>
+      <c r="H53">
+        <v>201687.4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2593.3000000000002</v>
+      </c>
+      <c r="K53">
+        <v>175.5</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1445.7</v>
+      </c>
+      <c r="O53">
+        <v>192079.5</v>
+      </c>
+      <c r="P53">
+        <v>3556.7</v>
+      </c>
+      <c r="Q53">
+        <v>596.6</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>9607.9</v>
+      </c>
+      <c r="U53">
+        <v>1707.1</v>
+      </c>
+      <c r="V53">
+        <v>614.29999999999995</v>
+      </c>
+      <c r="W53">
+        <v>-93</v>
+      </c>
+      <c r="X53">
+        <v>-507.5</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="AA53">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>241.7</v>
+      </c>
+      <c r="D54">
+        <v>2672.6</v>
+      </c>
+      <c r="E54">
+        <v>1229.5</v>
+      </c>
+      <c r="F54">
+        <v>1230.7</v>
+      </c>
+      <c r="G54">
+        <v>7140.1</v>
+      </c>
+      <c r="H54">
+        <v>208191.4</v>
+      </c>
+      <c r="I54">
+        <v>1144.7</v>
+      </c>
+      <c r="J54">
+        <v>2601.4</v>
+      </c>
+      <c r="K54">
+        <v>150.6</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2542.3000000000002</v>
+      </c>
+      <c r="O54">
+        <v>198167.2</v>
+      </c>
+      <c r="P54">
+        <v>3527</v>
+      </c>
+      <c r="Q54">
+        <v>664.7</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>14792</v>
+      </c>
+      <c r="T54">
+        <v>10024.200000000001</v>
+      </c>
+      <c r="U54">
+        <v>2371.8000000000002</v>
+      </c>
+      <c r="V54">
+        <v>823.3</v>
+      </c>
+      <c r="W54">
+        <v>-85</v>
+      </c>
+      <c r="X54">
+        <v>-365.1</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-81.599999999999994</v>
+      </c>
+      <c r="AA54">
+        <v>241.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="D55">
+        <v>2478.6</v>
+      </c>
+      <c r="E55">
+        <v>1199.3</v>
+      </c>
+      <c r="F55">
+        <v>1205.4000000000001</v>
+      </c>
+      <c r="G55">
+        <v>5757.2</v>
+      </c>
+      <c r="H55">
+        <v>211193.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2516</v>
+      </c>
+      <c r="K55">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="L55">
+        <v>-0.3</v>
+      </c>
+      <c r="M55">
+        <v>-100.1</v>
+      </c>
+      <c r="N55">
+        <v>1291</v>
+      </c>
+      <c r="O55">
+        <v>200855.8</v>
+      </c>
+      <c r="P55">
+        <v>3308.8</v>
+      </c>
+      <c r="Q55">
+        <v>-978.7</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>10338.1</v>
+      </c>
+      <c r="U55">
+        <v>1393.1</v>
+      </c>
+      <c r="V55">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="W55">
+        <v>-82.7</v>
+      </c>
+      <c r="X55">
+        <v>-734.7</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-619.1</v>
+      </c>
+      <c r="AA55">
+        <v>301.89999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="D56">
+        <v>2606.6999999999998</v>
+      </c>
+      <c r="E56">
+        <v>1232.3</v>
+      </c>
+      <c r="F56">
+        <v>1293.7</v>
+      </c>
+      <c r="G56">
+        <v>6288.5</v>
+      </c>
+      <c r="H56">
+        <v>218322.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2529.4</v>
+      </c>
+      <c r="K56">
+        <v>148.6</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1265.7</v>
+      </c>
+      <c r="O56">
+        <v>207580.6</v>
+      </c>
+      <c r="P56">
+        <v>3265.3</v>
+      </c>
+      <c r="Q56">
+        <v>349.2</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>10741.7</v>
+      </c>
+      <c r="U56">
+        <v>1742.3</v>
+      </c>
+      <c r="V56">
+        <v>786</v>
+      </c>
+      <c r="W56">
+        <v>-110.6</v>
+      </c>
+      <c r="X56">
+        <v>-775.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>501.4</v>
+      </c>
+      <c r="AA56">
+        <v>314.60000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>248.9</v>
+      </c>
+      <c r="D57">
+        <v>2484.3000000000002</v>
+      </c>
+      <c r="E57">
+        <v>1189.3</v>
+      </c>
+      <c r="F57">
+        <v>1326.3</v>
+      </c>
+      <c r="G57">
+        <v>5732.6</v>
+      </c>
+      <c r="H57">
+        <v>216422.8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2529.1999999999998</v>
+      </c>
+      <c r="K57">
+        <v>126.3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1181</v>
+      </c>
+      <c r="O57">
+        <v>205997.7</v>
+      </c>
+      <c r="P57">
+        <v>3185.2</v>
+      </c>
+      <c r="Q57">
+        <v>-471.5</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>10425.1</v>
+      </c>
+      <c r="U57">
+        <v>1270.8</v>
+      </c>
+      <c r="V57">
+        <v>820.3</v>
+      </c>
+      <c r="W57">
+        <v>-108.1</v>
+      </c>
+      <c r="X57">
+        <v>-961.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-50.9</v>
+      </c>
+      <c r="AA57">
+        <v>248.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>278.7</v>
+      </c>
+      <c r="D58">
+        <v>2908</v>
+      </c>
+      <c r="E58">
+        <v>1205.9000000000001</v>
+      </c>
+      <c r="F58">
+        <v>1243.8</v>
+      </c>
+      <c r="G58">
+        <v>6778.5</v>
+      </c>
+      <c r="H58">
+        <v>219087</v>
+      </c>
+      <c r="I58">
+        <v>1240.0999999999999</v>
+      </c>
+      <c r="J58">
+        <v>2531.1999999999998</v>
+      </c>
+      <c r="K58">
+        <v>28</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2310.5</v>
+      </c>
+      <c r="O58">
+        <v>208797</v>
+      </c>
+      <c r="P58">
+        <v>3074.5</v>
+      </c>
+      <c r="Q58">
+        <v>593.1</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>14873</v>
+      </c>
+      <c r="T58">
+        <v>10290</v>
+      </c>
+      <c r="U58">
+        <v>1863.9</v>
+      </c>
+      <c r="V58">
+        <v>905.3</v>
+      </c>
+      <c r="W58">
+        <v>-108.2</v>
+      </c>
+      <c r="X58">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-210.4</v>
+      </c>
+      <c r="AA58">
+        <v>278.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>422.4</v>
+      </c>
+      <c r="D59">
+        <v>2657.3</v>
+      </c>
+      <c r="E59">
+        <v>1230</v>
+      </c>
+      <c r="F59">
+        <v>1379.3</v>
+      </c>
+      <c r="G59">
+        <v>6342.7</v>
+      </c>
+      <c r="H59">
+        <v>222494.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2514.6</v>
+      </c>
+      <c r="K59">
+        <v>27.2</v>
+      </c>
+      <c r="L59">
+        <v>-0.1</v>
+      </c>
+      <c r="M59">
+        <v>-19.8</v>
+      </c>
+      <c r="N59">
+        <v>1184</v>
+      </c>
+      <c r="O59">
+        <v>211937.8</v>
+      </c>
+      <c r="P59">
+        <v>3089.1</v>
+      </c>
+      <c r="Q59">
+        <v>-411.9</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10557.1</v>
+      </c>
+      <c r="U59">
+        <v>1452</v>
+      </c>
+      <c r="V59">
+        <v>630.9</v>
+      </c>
+      <c r="W59">
+        <v>-114.5</v>
+      </c>
+      <c r="X59">
+        <v>-813.3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-6.4</v>
+      </c>
+      <c r="AA59">
+        <v>422.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="D60">
+        <v>3259.2</v>
+      </c>
+      <c r="E60">
+        <v>1282.7</v>
+      </c>
+      <c r="F60">
+        <v>1163.5</v>
+      </c>
+      <c r="G60">
+        <v>6934.8</v>
+      </c>
+      <c r="H60">
+        <v>222270.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3315.9</v>
+      </c>
+      <c r="K60">
+        <v>26.6</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1187.2</v>
+      </c>
+      <c r="O60">
+        <v>212436.5</v>
+      </c>
+      <c r="P60">
+        <v>3793.9</v>
+      </c>
+      <c r="Q60">
+        <v>812.4</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>9834.2000000000007</v>
+      </c>
+      <c r="U60">
+        <v>2264.4</v>
+      </c>
+      <c r="V60">
+        <v>1486.5</v>
+      </c>
+      <c r="W60">
+        <v>-120.3</v>
+      </c>
+      <c r="X60">
+        <v>33.5</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-377.5</v>
+      </c>
+      <c r="AA60">
+        <v>257.60000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="D61">
+        <v>3240.9</v>
+      </c>
+      <c r="E61">
+        <v>1401.6</v>
+      </c>
+      <c r="F61">
+        <v>1330.6</v>
+      </c>
+      <c r="G61">
+        <v>7654.5</v>
+      </c>
+      <c r="H61">
+        <v>215365.4</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>3286.1</v>
+      </c>
+      <c r="K61">
+        <v>221.6</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1291.9000000000001</v>
+      </c>
+      <c r="O61">
+        <v>205601.6</v>
+      </c>
+      <c r="P61">
+        <v>3984</v>
+      </c>
+      <c r="Q61">
+        <v>249.8</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9763.7999999999993</v>
+      </c>
+      <c r="U61">
+        <v>2514.1999999999998</v>
+      </c>
+      <c r="V61">
+        <v>1205.5999999999999</v>
+      </c>
+      <c r="W61">
+        <v>-111.9</v>
+      </c>
+      <c r="X61">
+        <v>-126.1</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-254.4</v>
+      </c>
+      <c r="AA61">
+        <v>300.39999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>253.6</v>
+      </c>
+      <c r="D62">
+        <v>2807</v>
+      </c>
+      <c r="E62">
+        <v>1423.6</v>
+      </c>
+      <c r="F62">
+        <v>1229.8</v>
+      </c>
+      <c r="G62">
+        <v>8145</v>
+      </c>
+      <c r="H62">
+        <v>218660.3</v>
+      </c>
+      <c r="I62">
+        <v>1872.2</v>
+      </c>
+      <c r="J62">
+        <v>3265.2</v>
+      </c>
+      <c r="K62">
+        <v>181.1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3074.4</v>
+      </c>
+      <c r="O62">
+        <v>209197.2</v>
+      </c>
+      <c r="P62">
+        <v>3834.3</v>
+      </c>
+      <c r="Q62">
+        <v>50.6</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>14895</v>
+      </c>
+      <c r="T62">
+        <v>9463.1</v>
+      </c>
+      <c r="U62">
+        <v>2564.8000000000002</v>
+      </c>
+      <c r="V62">
+        <v>1054.0999999999999</v>
+      </c>
+      <c r="W62">
+        <v>-110.8</v>
+      </c>
+      <c r="X62">
+        <v>397.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1191.9000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>368</v>
+      </c>
+      <c r="D63">
+        <v>3036.6</v>
+      </c>
+      <c r="E63">
+        <v>1309.5</v>
+      </c>
+      <c r="F63">
+        <v>1339.3</v>
+      </c>
+      <c r="G63">
+        <v>7916.2</v>
+      </c>
+      <c r="H63">
+        <v>217570</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3269.1</v>
+      </c>
+      <c r="K63">
+        <v>122.6</v>
+      </c>
+      <c r="L63">
+        <v>-59.9</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1243</v>
+      </c>
+      <c r="O63">
+        <v>207199.5</v>
+      </c>
+      <c r="P63">
+        <v>3977.4</v>
+      </c>
+      <c r="Q63">
+        <v>-421.9</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>10370.5</v>
+      </c>
+      <c r="U63">
+        <v>2142.9</v>
+      </c>
+      <c r="V63">
+        <v>895.5</v>
+      </c>
+      <c r="W63">
+        <v>-110.4</v>
+      </c>
+      <c r="X63">
+        <v>535.9</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-1783</v>
+      </c>
+      <c r="AA63">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>322.3</v>
+      </c>
+      <c r="D64">
+        <v>3025.7</v>
+      </c>
+      <c r="E64">
+        <v>1504.8</v>
+      </c>
+      <c r="F64">
+        <v>1327.8</v>
+      </c>
+      <c r="G64">
+        <v>8480.5</v>
+      </c>
+      <c r="H64">
+        <v>223074.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3270.2</v>
+      </c>
+      <c r="K64">
+        <v>25.9</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1248.4000000000001</v>
+      </c>
+      <c r="O64">
+        <v>212169.4</v>
+      </c>
+      <c r="P64">
+        <v>3969.5</v>
+      </c>
+      <c r="Q64">
+        <v>112.5</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>10904.8</v>
+      </c>
+      <c r="U64">
+        <v>2255.4</v>
+      </c>
+      <c r="V64">
+        <v>1230.0999999999999</v>
+      </c>
+      <c r="W64">
+        <v>-112.8</v>
+      </c>
+      <c r="X64">
+        <v>703.1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-1489.6</v>
+      </c>
+      <c r="AA64">
+        <v>322.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>308.2</v>
+      </c>
+      <c r="D65">
+        <v>2818</v>
+      </c>
+      <c r="E65">
+        <v>1382.8</v>
+      </c>
+      <c r="F65">
+        <v>1290.3</v>
+      </c>
+      <c r="G65">
+        <v>8298.5</v>
+      </c>
+      <c r="H65">
+        <v>230367.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>3278.2</v>
+      </c>
+      <c r="K65">
+        <v>39.9</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1231</v>
+      </c>
+      <c r="O65">
+        <v>219313.9</v>
+      </c>
+      <c r="P65">
+        <v>3923.3</v>
+      </c>
+      <c r="Q65">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>11053.7</v>
+      </c>
+      <c r="U65">
+        <v>2218.1999999999998</v>
+      </c>
+      <c r="V65">
+        <v>801.7</v>
+      </c>
+      <c r="W65">
+        <v>-117.9</v>
+      </c>
+      <c r="X65">
+        <v>-15.3</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-385.7</v>
+      </c>
+      <c r="AA65">
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>318</v>
+      </c>
+      <c r="D66">
+        <v>3513.8</v>
+      </c>
+      <c r="E66">
+        <v>1356.2</v>
+      </c>
+      <c r="F66">
+        <v>1366.9</v>
+      </c>
+      <c r="G66">
+        <v>8485.6</v>
+      </c>
+      <c r="H66">
+        <v>228014.3</v>
+      </c>
+      <c r="I66">
+        <v>2001.3</v>
+      </c>
+      <c r="J66">
+        <v>3125.7</v>
+      </c>
+      <c r="K66">
+        <v>51.4</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2850.9</v>
+      </c>
+      <c r="O66">
+        <v>217623</v>
+      </c>
+      <c r="P66">
+        <v>3449</v>
+      </c>
+      <c r="Q66">
+        <v>501.4</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>14854</v>
+      </c>
+      <c r="T66">
+        <v>10391.299999999999</v>
+      </c>
+      <c r="U66">
+        <v>2719.6</v>
+      </c>
+      <c r="V66">
+        <v>930.5</v>
+      </c>
+      <c r="W66">
+        <v>-123.8</v>
+      </c>
+      <c r="X66">
+        <v>227.2</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-446.2</v>
+      </c>
+      <c r="AA66">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>348.9</v>
+      </c>
+      <c r="D67">
+        <v>3049.4</v>
+      </c>
+      <c r="E67">
+        <v>1447</v>
+      </c>
+      <c r="F67">
+        <v>1357.2</v>
+      </c>
+      <c r="G67">
+        <v>6613.1</v>
+      </c>
+      <c r="H67">
+        <v>235496</v>
+      </c>
+      <c r="I67">
+        <v>2034.9</v>
+      </c>
+      <c r="J67">
+        <v>3126.2</v>
+      </c>
+      <c r="K67">
+        <v>59.5</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2624.6</v>
+      </c>
+      <c r="O67">
+        <v>224716</v>
+      </c>
+      <c r="P67">
+        <v>3262.9</v>
+      </c>
+      <c r="Q67">
+        <v>-1184.9000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>10780</v>
+      </c>
+      <c r="U67">
+        <v>1534.7</v>
+      </c>
+      <c r="V67">
+        <v>522.9</v>
+      </c>
+      <c r="W67">
+        <v>-130</v>
+      </c>
+      <c r="X67">
+        <v>123.2</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1599</v>
+      </c>
+      <c r="AA67">
+        <v>348.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>309.5</v>
+      </c>
+      <c r="D68">
+        <v>3178.3</v>
+      </c>
+      <c r="E68">
+        <v>1381.4</v>
+      </c>
+      <c r="F68">
+        <v>1294.3</v>
+      </c>
+      <c r="G68">
+        <v>7043.6</v>
+      </c>
+      <c r="H68">
+        <v>240153.9</v>
+      </c>
+      <c r="I68">
+        <v>2063.3000000000002</v>
+      </c>
+      <c r="J68">
+        <v>3126.8</v>
+      </c>
+      <c r="K68">
+        <v>42</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2651.8</v>
+      </c>
+      <c r="O68">
+        <v>228820.8</v>
+      </c>
+      <c r="P68">
+        <v>3245.4</v>
+      </c>
+      <c r="Q68">
+        <v>471.7</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>11333.1</v>
+      </c>
+      <c r="U68">
+        <v>2006.4</v>
+      </c>
+      <c r="V68">
+        <v>1306.2</v>
+      </c>
+      <c r="W68">
+        <v>-132.69999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-161.19999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-229.3</v>
+      </c>
+      <c r="AA68">
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>810.2</v>
+      </c>
+      <c r="D69">
+        <v>4627.8</v>
+      </c>
+      <c r="E69">
+        <v>1516.6</v>
+      </c>
+      <c r="F69">
+        <v>2090.6</v>
+      </c>
+      <c r="G69">
+        <v>8080.3</v>
+      </c>
+      <c r="H69">
+        <v>247933.6</v>
+      </c>
+      <c r="I69">
+        <v>2094.1999999999998</v>
+      </c>
+      <c r="J69">
+        <v>3175.4</v>
+      </c>
+      <c r="K69">
+        <v>58.8</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2713.6</v>
+      </c>
+      <c r="O69">
+        <v>235737.2</v>
+      </c>
+      <c r="P69">
+        <v>3303.7</v>
+      </c>
+      <c r="Q69">
+        <v>788.6</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>12196.4</v>
+      </c>
+      <c r="U69">
+        <v>2795</v>
+      </c>
+      <c r="V69">
+        <v>1799.6</v>
+      </c>
+      <c r="W69">
+        <v>-135.80000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-197.6</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-960.5</v>
+      </c>
+      <c r="AA69">
+        <v>810.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>841.8</v>
+      </c>
+      <c r="D70">
+        <v>3237.7</v>
+      </c>
+      <c r="E70">
+        <v>594.20000000000005</v>
+      </c>
+      <c r="F70">
+        <v>1403.9</v>
+      </c>
+      <c r="G70">
+        <v>8361</v>
+      </c>
+      <c r="H70">
+        <v>253941.2</v>
+      </c>
+      <c r="I70">
+        <v>2130.5</v>
+      </c>
+      <c r="J70">
+        <v>3178.4</v>
+      </c>
+      <c r="K70">
+        <v>39.5</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2714.5</v>
+      </c>
+      <c r="O70">
+        <v>240918</v>
+      </c>
+      <c r="P70">
+        <v>3274.4</v>
+      </c>
+      <c r="Q70">
+        <v>-324.2</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15378</v>
+      </c>
+      <c r="T70">
+        <v>13023.2</v>
+      </c>
+      <c r="U70">
+        <v>2470.8000000000002</v>
+      </c>
+      <c r="V70">
+        <v>559.29999999999995</v>
+      </c>
+      <c r="W70">
+        <v>-141.5</v>
+      </c>
+      <c r="X70">
+        <v>-148.4</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-496.8</v>
+      </c>
+      <c r="AA70">
+        <v>841.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>397.1</v>
+      </c>
+      <c r="D71">
+        <v>2883.6</v>
+      </c>
+      <c r="E71">
+        <v>1638.4</v>
+      </c>
+      <c r="F71">
+        <v>1442</v>
+      </c>
+      <c r="G71">
+        <v>6462.7</v>
+      </c>
+      <c r="H71">
+        <v>253636.5</v>
+      </c>
+      <c r="I71">
+        <v>2153.1999999999998</v>
+      </c>
+      <c r="J71">
+        <v>3196.6</v>
+      </c>
+      <c r="K71">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.3</v>
+      </c>
+      <c r="N71">
+        <v>2867.2</v>
+      </c>
+      <c r="O71">
+        <v>241252.9</v>
+      </c>
+      <c r="P71">
+        <v>3324.2</v>
+      </c>
+      <c r="Q71">
+        <v>-135.1</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>12383.6</v>
+      </c>
+      <c r="U71">
+        <v>2335.6999999999998</v>
+      </c>
+      <c r="V71">
+        <v>746.5</v>
+      </c>
+      <c r="W71">
+        <v>-147.30000000000001</v>
+      </c>
+      <c r="X71">
+        <v>98.3</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-570.6</v>
+      </c>
+      <c r="AA71">
+        <v>397.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>456.6</v>
+      </c>
+      <c r="D72">
+        <v>3234.9</v>
+      </c>
+      <c r="E72">
+        <v>1455.6</v>
+      </c>
+      <c r="F72">
+        <v>1505.5</v>
+      </c>
+      <c r="G72">
+        <v>6235.1</v>
+      </c>
+      <c r="H72">
+        <v>252104</v>
+      </c>
+      <c r="I72">
+        <v>2188</v>
+      </c>
+      <c r="J72">
+        <v>3219.9</v>
+      </c>
+      <c r="K72">
+        <v>64.5</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2811</v>
+      </c>
+      <c r="O72">
+        <v>240258.6</v>
+      </c>
+      <c r="P72">
+        <v>3333.4</v>
+      </c>
+      <c r="Q72">
+        <v>6.3</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>11845.4</v>
+      </c>
+      <c r="U72">
+        <v>2342</v>
+      </c>
+      <c r="V72">
+        <v>891.7</v>
+      </c>
+      <c r="W72">
+        <v>-148.5</v>
+      </c>
+      <c r="X72">
+        <v>476.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-1380.7</v>
+      </c>
+      <c r="AA72">
+        <v>456.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>456.3</v>
+      </c>
+      <c r="D73">
+        <v>4348.1000000000004</v>
+      </c>
+      <c r="E73">
+        <v>1514.4</v>
+      </c>
+      <c r="F73">
+        <v>1674.1</v>
+      </c>
+      <c r="G73">
+        <v>6829.3</v>
+      </c>
+      <c r="H73">
+        <v>258758.3</v>
+      </c>
+      <c r="I73">
+        <v>2212.3000000000002</v>
+      </c>
+      <c r="J73">
+        <v>3245.5</v>
+      </c>
+      <c r="K73">
+        <v>36.1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2686.1</v>
+      </c>
+      <c r="O73">
+        <v>246841.1</v>
+      </c>
+      <c r="P73">
+        <v>3335.3</v>
+      </c>
+      <c r="Q73">
+        <v>584.70000000000005</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>11917.2</v>
+      </c>
+      <c r="U73">
+        <v>2926.7</v>
+      </c>
+      <c r="V73">
+        <v>2075.6999999999998</v>
+      </c>
+      <c r="W73">
+        <v>-150.69999999999999</v>
+      </c>
+      <c r="X73">
+        <v>576.20000000000005</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-1429.3</v>
+      </c>
+      <c r="AA73">
+        <v>456.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>236.5</v>
+      </c>
+      <c r="D74">
+        <v>3770.6</v>
+      </c>
+      <c r="E74">
+        <v>481.9</v>
+      </c>
+      <c r="F74">
+        <v>1299.5</v>
+      </c>
+      <c r="G74">
+        <v>6880.6</v>
+      </c>
+      <c r="H74">
+        <v>243036.1</v>
+      </c>
+      <c r="I74">
+        <v>2252.6999999999998</v>
+      </c>
+      <c r="J74">
+        <v>3259.6</v>
+      </c>
+      <c r="K74">
+        <v>42.9</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2567.4</v>
+      </c>
+      <c r="O74">
+        <v>231188.9</v>
+      </c>
+      <c r="P74">
+        <v>3341.2</v>
+      </c>
+      <c r="Q74">
+        <v>50.8</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>16475</v>
+      </c>
+      <c r="T74">
+        <v>11847.2</v>
+      </c>
+      <c r="U74">
+        <v>2977.5</v>
+      </c>
+      <c r="V74">
+        <v>1442.6</v>
+      </c>
+      <c r="W74">
+        <v>-152.1</v>
+      </c>
+      <c r="X74">
+        <v>-98</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-801.2</v>
+      </c>
+      <c r="AA74">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>429.9</v>
+      </c>
+      <c r="D75">
+        <v>3743.9</v>
+      </c>
+      <c r="E75">
+        <v>1641.1</v>
+      </c>
+      <c r="F75">
+        <v>1518.7</v>
+      </c>
+      <c r="G75">
+        <v>6320.1</v>
+      </c>
+      <c r="H75">
+        <v>259419.9</v>
+      </c>
+      <c r="I75">
+        <v>2276</v>
+      </c>
+      <c r="J75">
+        <v>3266.4</v>
+      </c>
+      <c r="K75">
+        <v>43.9</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.3</v>
+      </c>
+      <c r="N75">
+        <v>2708.1</v>
+      </c>
+      <c r="O75">
+        <v>246120</v>
+      </c>
+      <c r="P75">
+        <v>3551.1</v>
+      </c>
+      <c r="Q75">
+        <v>-717.8</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>13299.9</v>
+      </c>
+      <c r="U75">
+        <v>2259.6999999999998</v>
+      </c>
+      <c r="V75">
+        <v>1176.4000000000001</v>
+      </c>
+      <c r="W75">
+        <v>-150.19999999999999</v>
+      </c>
+      <c r="X75">
+        <v>-403.1</v>
+      </c>
+      <c r="Y75">
+        <v>143.1</v>
+      </c>
+      <c r="Z75">
+        <v>-1208.5</v>
+      </c>
+      <c r="AA75">
+        <v>429.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>386.3</v>
+      </c>
+      <c r="D76">
+        <v>3972.6</v>
+      </c>
+      <c r="E76">
+        <v>1549.2</v>
+      </c>
+      <c r="F76">
+        <v>1496.6</v>
+      </c>
+      <c r="G76">
+        <v>7366.1</v>
+      </c>
+      <c r="H76">
+        <v>267918</v>
+      </c>
+      <c r="I76">
+        <v>2308.8000000000002</v>
+      </c>
+      <c r="J76">
+        <v>3762.4</v>
+      </c>
+      <c r="K76">
+        <v>76.8</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2854.2</v>
+      </c>
+      <c r="O76">
+        <v>253511.5</v>
+      </c>
+      <c r="P76">
+        <v>4118.3</v>
+      </c>
+      <c r="Q76">
+        <v>1056.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>14406.5</v>
+      </c>
+      <c r="U76">
+        <v>3315.9</v>
+      </c>
+      <c r="V76">
+        <v>1502</v>
+      </c>
+      <c r="W76">
+        <v>-150.4</v>
+      </c>
+      <c r="X76">
+        <v>407.1</v>
+      </c>
+      <c r="Y76">
+        <v>170.5</v>
+      </c>
+      <c r="Z76">
+        <v>-314</v>
+      </c>
+      <c r="AA76">
+        <v>386.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="D77">
+        <v>4458.3999999999996</v>
+      </c>
+      <c r="E77">
+        <v>1635.7</v>
+      </c>
+      <c r="F77">
+        <v>1588</v>
+      </c>
+      <c r="G77">
+        <v>7370.1</v>
+      </c>
+      <c r="H77">
+        <v>270238.40000000002</v>
+      </c>
+      <c r="I77">
+        <v>2341.6999999999998</v>
+      </c>
+      <c r="J77">
+        <v>3763.9</v>
+      </c>
+      <c r="K77">
+        <v>96.1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3126.9</v>
+      </c>
+      <c r="O77">
+        <v>254996.3</v>
+      </c>
+      <c r="P77">
+        <v>4136.6000000000004</v>
+      </c>
+      <c r="Q77">
+        <v>-117.9</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>15242.1</v>
+      </c>
+      <c r="U77">
+        <v>3198</v>
+      </c>
+      <c r="V77">
+        <v>1786.4</v>
+      </c>
+      <c r="W77">
+        <v>-153</v>
+      </c>
+      <c r="X77">
+        <v>677.9</v>
+      </c>
+      <c r="Y77">
+        <v>164.9</v>
+      </c>
+      <c r="Z77">
+        <v>-951.5</v>
+      </c>
+      <c r="AA77">
+        <v>277.10000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="D78">
+        <v>4047.2</v>
+      </c>
+      <c r="E78">
+        <v>768.9</v>
+      </c>
+      <c r="F78">
+        <v>1593.9</v>
+      </c>
+      <c r="G78">
+        <v>6891.6</v>
+      </c>
+      <c r="H78">
+        <v>276087.8</v>
+      </c>
+      <c r="I78">
+        <v>2365.5</v>
+      </c>
+      <c r="J78">
+        <v>3734.1</v>
+      </c>
+      <c r="K78">
+        <v>93.4</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2791.4</v>
+      </c>
+      <c r="O78">
+        <v>261137.1</v>
+      </c>
+      <c r="P78">
+        <v>4094.8</v>
+      </c>
+      <c r="Q78">
+        <v>-682.1</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>17601</v>
+      </c>
+      <c r="T78">
+        <v>14950.7</v>
+      </c>
+      <c r="U78">
+        <v>2515.9</v>
+      </c>
+      <c r="V78">
+        <v>1028.4000000000001</v>
+      </c>
+      <c r="W78">
+        <v>-152.4</v>
+      </c>
+      <c r="X78">
+        <v>1051.8</v>
+      </c>
+      <c r="Y78">
+        <v>229.3</v>
+      </c>
+      <c r="Z78">
+        <v>-2690.6</v>
+      </c>
+      <c r="AA78">
+        <v>300.89999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="D79">
+        <v>4551.3</v>
+      </c>
+      <c r="E79">
+        <v>1691</v>
+      </c>
+      <c r="F79">
+        <v>1663.7</v>
+      </c>
+      <c r="G79">
+        <v>7754.4</v>
+      </c>
+      <c r="H79">
+        <v>246903.9</v>
+      </c>
+      <c r="I79">
+        <v>2384.9</v>
+      </c>
+      <c r="J79">
+        <v>3670.1</v>
+      </c>
+      <c r="K79">
+        <v>105.6</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-64.5</v>
+      </c>
+      <c r="N79">
+        <v>2750.4</v>
+      </c>
+      <c r="O79">
+        <v>233691.6</v>
+      </c>
+      <c r="P79">
+        <v>3846.9</v>
+      </c>
+      <c r="Q79">
+        <v>966.8</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>13212.3</v>
+      </c>
+      <c r="U79">
+        <v>3482.7</v>
+      </c>
+      <c r="V79">
+        <v>1589.1</v>
+      </c>
+      <c r="W79">
+        <v>-153.6</v>
+      </c>
+      <c r="X79">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-609.4</v>
+      </c>
+      <c r="AA79">
+        <v>288.89999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>398.3</v>
+      </c>
+      <c r="D80">
+        <v>3114.6</v>
+      </c>
+      <c r="E80">
+        <v>1760</v>
+      </c>
+      <c r="F80">
+        <v>1481.9</v>
+      </c>
+      <c r="G80">
+        <v>7374.6</v>
+      </c>
+      <c r="H80">
+        <v>271309.40000000002</v>
+      </c>
+      <c r="I80">
+        <v>2432.6</v>
+      </c>
+      <c r="J80">
+        <v>4163.3999999999996</v>
+      </c>
+      <c r="K80">
+        <v>76.3</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2718</v>
+      </c>
+      <c r="O80">
+        <v>255725.7</v>
+      </c>
+      <c r="P80">
+        <v>4311.8</v>
+      </c>
+      <c r="Q80">
+        <v>-332.3</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>15583.7</v>
+      </c>
+      <c r="U80">
+        <v>3150.4</v>
+      </c>
+      <c r="V80">
+        <v>457</v>
+      </c>
+      <c r="W80">
+        <v>-153.5</v>
+      </c>
+      <c r="X80">
+        <v>519.1</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-1204.8</v>
+      </c>
+      <c r="AA80">
+        <v>398.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>236</v>
+      </c>
+      <c r="D81">
+        <v>3310.7</v>
+      </c>
+      <c r="E81">
+        <v>1530.2</v>
+      </c>
+      <c r="F81">
+        <v>1441</v>
+      </c>
+      <c r="G81">
+        <v>7489.9</v>
+      </c>
+      <c r="H81">
+        <v>278484.8</v>
+      </c>
+      <c r="I81">
+        <v>2479.6999999999998</v>
+      </c>
+      <c r="J81">
+        <v>4279</v>
+      </c>
+      <c r="K81">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2732.3</v>
+      </c>
+      <c r="O81">
+        <v>262485.2</v>
+      </c>
+      <c r="P81">
+        <v>4422.8</v>
+      </c>
+      <c r="Q81">
+        <v>406.3</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>15999.6</v>
+      </c>
+      <c r="U81">
+        <v>3556.7</v>
+      </c>
+      <c r="V81">
+        <v>1064.3</v>
+      </c>
+      <c r="W81">
+        <v>-153.69999999999999</v>
+      </c>
+      <c r="X81">
+        <v>760.8</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-1161</v>
+      </c>
+      <c r="AA81">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>472.6</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3765.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>781.9</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1753.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>7045.2</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>296627.7</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2534.9</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4277.2</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>84.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3102.2</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>279754.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4706.2</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-706.9</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>17400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>16872.900000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2849.8</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>628.20000000000005</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-153.69999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>50.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>203.1</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-941.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>472.6</v>
       </c>
     </row>
